--- a/box表.xlsx
+++ b/box表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengjk\Desktop\pcrbattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF6494-792D-4F64-B282-28B294CD0EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67BD856-CF23-4783-9F59-D19E1E0E45D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -47,6 +48,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
             <scheme val="minor"/>
           </rPr>
@@ -67,6 +69,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>圣千</t>
     </r>
@@ -78,6 +81,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>克总</t>
     </r>
@@ -89,6 +93,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>中二</t>
     </r>
@@ -99,6 +104,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>情姐</t>
@@ -112,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>美琴</t>
@@ -124,6 +131,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3xr11</t>
     </r>
@@ -135,6 +143,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r10</t>
     </r>
@@ -146,6 +155,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4x开专</t>
     </r>
@@ -158,6 +168,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>女孩的小火柴</t>
     </r>
@@ -169,6 +180,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3x</t>
     </r>
@@ -179,6 +191,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>r10</t>
@@ -191,6 +204,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3x满专</t>
     </r>
@@ -202,6 +216,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5x满专</t>
     </r>
@@ -213,6 +228,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4×开专</t>
     </r>
@@ -225,6 +241,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>葛饰出久</t>
     </r>
@@ -236,6 +253,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r11-1</t>
     </r>
@@ -247,6 +265,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5x开专</t>
     </r>
@@ -259,6 +278,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>棉棉棉</t>
     </r>
@@ -271,6 +291,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>离</t>
     </r>
@@ -282,6 +303,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>三星r8112级技能</t>
     </r>
@@ -294,6 +316,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>克里斯</t>
     </r>
@@ -305,6 +328,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r11</t>
     </r>
@@ -316,6 +340,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4x满专</t>
     </r>
@@ -327,6 +352,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4x没开</t>
     </r>
@@ -339,6 +365,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>无星夜的咏叹调</t>
     </r>
@@ -350,6 +377,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>没练</t>
     </r>
@@ -360,6 +388,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R11</t>
@@ -372,6 +401,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5x满专</t>
     </r>
@@ -384,6 +414,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>阿单</t>
     </r>
@@ -395,6 +426,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r8</t>
     </r>
@@ -407,6 +439,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>vc</t>
     </r>
@@ -418,6 +451,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r11-0</t>
     </r>
@@ -430,6 +464,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>董千千</t>
     </r>
@@ -440,6 +475,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4x满专</t>
@@ -453,6 +489,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Chiaki</t>
     </r>
@@ -464,6 +501,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3x没拉</t>
     </r>
@@ -475,6 +513,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4x满</t>
     </r>
@@ -487,6 +526,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>d马拉卡v</t>
     </r>
@@ -497,6 +537,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3x没拉</t>
@@ -526,6 +567,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>在水一方</t>
     </r>
@@ -536,6 +578,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>r11-2</t>
@@ -549,6 +592,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>诛天</t>
     </r>
@@ -560,6 +604,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3x113</t>
     </r>
@@ -572,6 +617,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ghost</t>
     </r>
@@ -583,6 +629,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r11-2</t>
     </r>
@@ -595,6 +642,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>美奈子</t>
@@ -607,6 +655,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3x应该拉不起来</t>
     </r>
@@ -619,6 +668,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>哭泣的猫猫头</t>
     </r>
@@ -630,6 +680,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3x r11-2</t>
     </r>
@@ -641,6 +692,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3x开专</t>
     </r>
@@ -657,6 +709,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>RNG.猫猫头</t>
     </r>
@@ -668,6 +721,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3x r7</t>
     </r>
@@ -680,6 +734,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>我惠美如仙</t>
     </r>
@@ -691,6 +746,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5x没开</t>
     </r>
@@ -703,6 +759,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>五更</t>
@@ -714,6 +771,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3x</t>
@@ -727,6 +785,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>逢抽必中</t>
     </r>
@@ -738,6 +797,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3星10-6</t>
     </r>
@@ -748,6 +808,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>r10-6</t>
@@ -761,6 +822,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Remarkable</t>
@@ -772,6 +834,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5x满专</t>
@@ -785,6 +848,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>宫子饲养员nano</t>
@@ -797,6 +861,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r 12翻车了</t>
     </r>
@@ -807,6 +872,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>没养</t>
@@ -818,6 +884,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3（可母4）</t>
@@ -829,6 +896,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4x 70专</t>
@@ -840,6 +908,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4 50专</t>
@@ -853,6 +922,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>bunny_tu</t>
@@ -864,6 +934,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>没练</t>
@@ -875,6 +946,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>r11-4</t>
@@ -886,6 +958,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4x50专</t>
@@ -899,6 +972,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>断罪</t>
     </r>
@@ -909,6 +983,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5x可拉</t>
@@ -921,6 +996,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3x r11</t>
     </r>
@@ -932,6 +1008,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5x r11</t>
     </r>
@@ -943,6 +1020,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r11-3</t>
     </r>
@@ -954,6 +1032,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4x 80碎</t>
     </r>
@@ -966,6 +1045,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>汐怀</t>
     </r>
@@ -977,6 +1057,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3xr11满练</t>
     </r>
@@ -988,6 +1069,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>r11—2</t>
     </r>
@@ -1000,6 +1082,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>奇怪的哦只桑</t>
     </r>
@@ -1011,6 +1094,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3xR7</t>
     </r>
@@ -1022,6 +1106,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>R10—5</t>
     </r>
@@ -1033,6 +1118,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4x满专可母5</t>
     </r>
@@ -1044,6 +1130,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5X满专</t>
     </r>
@@ -1056,6 +1143,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>佐仓双叶</t>
     </r>
@@ -1067,6 +1155,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3xr11无装备</t>
     </r>
@@ -1077,6 +1166,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>r11-0</t>
@@ -1089,6 +1179,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4可母</t>
     </r>
@@ -1237,7 +1328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1249,18 +1340,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1273,18 +1367,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1298,6 +1395,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1332,6 +1430,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1827,47 +1933,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
+    <col min="7" max="8" width="10.19921875" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="16" width="17.375" customWidth="1"/>
-    <col min="17" max="17" width="18.875" customWidth="1"/>
-    <col min="18" max="18" width="15.625" customWidth="1"/>
-    <col min="19" max="19" width="12.875" customWidth="1"/>
-    <col min="20" max="20" width="15.875" customWidth="1"/>
-    <col min="21" max="21" width="8.125" customWidth="1"/>
-    <col min="22" max="26" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" customWidth="1"/>
+    <col min="17" max="17" width="18.8984375" customWidth="1"/>
+    <col min="18" max="18" width="15.59765625" customWidth="1"/>
+    <col min="19" max="19" width="12.8984375" customWidth="1"/>
+    <col min="20" max="20" width="15.8984375" customWidth="1"/>
+    <col min="21" max="21" width="8.09765625" customWidth="1"/>
+    <col min="22" max="26" width="10.3984375" customWidth="1"/>
     <col min="27" max="27" width="19.5" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="30" width="10.375" customWidth="1"/>
-    <col min="31" max="31" width="21.75" customWidth="1"/>
-    <col min="32" max="36" width="10.375" customWidth="1"/>
+    <col min="29" max="30" width="10.3984375" customWidth="1"/>
+    <col min="31" max="31" width="21.69921875" customWidth="1"/>
+    <col min="32" max="36" width="10.3984375" customWidth="1"/>
     <col min="37" max="37" width="9" customWidth="1"/>
-    <col min="38" max="38" width="10.375" customWidth="1"/>
-    <col min="39" max="39" width="19.375" customWidth="1"/>
-    <col min="40" max="40" width="19.625" customWidth="1"/>
-    <col min="41" max="45" width="12.875" customWidth="1"/>
+    <col min="38" max="38" width="10.3984375" customWidth="1"/>
+    <col min="39" max="39" width="19.3984375" customWidth="1"/>
+    <col min="40" max="40" width="19.59765625" customWidth="1"/>
+    <col min="41" max="45" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1986,7 +2092,7 @@
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
     </row>
-    <row r="2" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -2097,7 +2203,7 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -2210,7 +2316,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -2325,7 +2431,7 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>4</v>
@@ -2436,7 +2542,7 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>5</v>
@@ -2547,7 +2653,7 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>6</v>
@@ -2658,7 +2764,7 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>7</v>
@@ -2767,7 +2873,7 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>8</v>
@@ -2882,7 +2988,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>9</v>
@@ -2997,7 +3103,7 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>10</v>
@@ -3110,7 +3216,7 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>11</v>
@@ -3219,7 +3325,7 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>12</v>
@@ -3332,7 +3438,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>13</v>
@@ -3385,7 +3491,9 @@
       <c r="R14" s="7">
         <v>1</v>
       </c>
-      <c r="S14" s="18"/>
+      <c r="S14" s="18">
+        <v>1</v>
+      </c>
       <c r="T14" s="11">
         <v>1</v>
       </c>
@@ -3451,7 +3559,7 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>14</v>
@@ -3556,7 +3664,7 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>15</v>
@@ -3667,7 +3775,7 @@
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <v>16</v>
@@ -3774,7 +3882,7 @@
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <v>17</v>
@@ -3883,7 +3991,7 @@
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
         <v>18</v>
@@ -3994,7 +4102,7 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>19</v>
@@ -4101,7 +4209,7 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
         <v>20</v>
@@ -4210,7 +4318,7 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
         <v>21</v>
@@ -4315,7 +4423,7 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>22</v>
@@ -4420,7 +4528,7 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
         <v>23</v>
@@ -4533,7 +4641,7 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="4">
         <v>24</v>
@@ -4644,7 +4752,7 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="4">
         <v>25</v>
@@ -4757,7 +4865,7 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="4">
         <v>26</v>
@@ -4870,7 +4978,7 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="4">
         <v>27</v>
@@ -4983,7 +5091,7 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="4">
         <v>28</v>
@@ -5094,7 +5202,7 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="4">
         <v>29</v>
@@ -5208,7 +5316,7 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="23">
         <v>30</v>
@@ -5317,7 +5425,7 @@
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="4"/>
@@ -5364,7 +5472,7 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="4"/>
@@ -5411,7 +5519,7 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="4"/>
@@ -5458,7 +5566,7 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4"/>
@@ -5505,7 +5613,7 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4"/>
@@ -5552,7 +5660,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="3"/>
     </row>
-    <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="4"/>
@@ -5599,7 +5707,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="3"/>
     </row>
-    <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="4"/>
@@ -5646,7 +5754,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="3"/>
     </row>
-    <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="4"/>
@@ -5693,7 +5801,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="3"/>
     </row>
-    <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4"/>
@@ -5740,7 +5848,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="3"/>
     </row>
-    <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="4"/>
@@ -5787,7 +5895,7 @@
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
     </row>
-    <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="4"/>
@@ -5834,7 +5942,7 @@
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
     </row>
-    <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4"/>
@@ -5881,7 +5989,7 @@
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
     </row>
-    <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4"/>
@@ -5928,7 +6036,7 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
     </row>
-    <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="4"/>
@@ -5975,7 +6083,7 @@
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
     </row>
-    <row r="46" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="4"/>
@@ -6022,7 +6130,7 @@
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
     </row>
-    <row r="47" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="4"/>
@@ -6069,7 +6177,7 @@
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
     </row>
-    <row r="48" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="4"/>
@@ -6116,7 +6224,7 @@
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
     </row>
-    <row r="49" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="27"/>
@@ -6163,7 +6271,7 @@
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
     </row>
-    <row r="50" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="27"/>
@@ -6210,7 +6318,7 @@
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
     </row>
-    <row r="51" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="27"/>
@@ -6257,7 +6365,7 @@
       <c r="AR51" s="3"/>
       <c r="AS51" s="3"/>
     </row>
-    <row r="52" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="27"/>
@@ -6304,7 +6412,7 @@
       <c r="AR52" s="3"/>
       <c r="AS52" s="3"/>
     </row>
-    <row r="53" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="27"/>
@@ -6351,7 +6459,7 @@
       <c r="AR53" s="3"/>
       <c r="AS53" s="3"/>
     </row>
-    <row r="54" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="27"/>
@@ -6398,7 +6506,7 @@
       <c r="AR54" s="3"/>
       <c r="AS54" s="3"/>
     </row>
-    <row r="55" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="27"/>
@@ -6445,7 +6553,7 @@
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
     </row>
-    <row r="56" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="27"/>
@@ -6492,7 +6600,7 @@
       <c r="AR56" s="3"/>
       <c r="AS56" s="3"/>
     </row>
-    <row r="57" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="27"/>
@@ -6539,7 +6647,7 @@
       <c r="AR57" s="3"/>
       <c r="AS57" s="3"/>
     </row>
-    <row r="58" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="27"/>
@@ -6586,7 +6694,7 @@
       <c r="AR58" s="3"/>
       <c r="AS58" s="3"/>
     </row>
-    <row r="59" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="27"/>
@@ -6633,7 +6741,7 @@
       <c r="AR59" s="3"/>
       <c r="AS59" s="3"/>
     </row>
-    <row r="60" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="27"/>
@@ -6680,7 +6788,7 @@
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
     </row>
-    <row r="61" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="27"/>
@@ -6727,7 +6835,7 @@
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
     </row>
-    <row r="62" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="27"/>
@@ -6774,7 +6882,7 @@
       <c r="AR62" s="3"/>
       <c r="AS62" s="3"/>
     </row>
-    <row r="63" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="27"/>
@@ -6821,7 +6929,7 @@
       <c r="AR63" s="3"/>
       <c r="AS63" s="3"/>
     </row>
-    <row r="64" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="27"/>
@@ -6868,7 +6976,7 @@
       <c r="AR64" s="3"/>
       <c r="AS64" s="3"/>
     </row>
-    <row r="65" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="27"/>
@@ -6915,7 +7023,7 @@
       <c r="AR65" s="3"/>
       <c r="AS65" s="3"/>
     </row>
-    <row r="66" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="27"/>
@@ -6962,7 +7070,7 @@
       <c r="AR66" s="3"/>
       <c r="AS66" s="3"/>
     </row>
-    <row r="67" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="27"/>
@@ -7009,7 +7117,7 @@
       <c r="AR67" s="3"/>
       <c r="AS67" s="3"/>
     </row>
-    <row r="68" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="27"/>
@@ -7056,7 +7164,7 @@
       <c r="AR68" s="3"/>
       <c r="AS68" s="3"/>
     </row>
-    <row r="69" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="27"/>
@@ -7103,7 +7211,7 @@
       <c r="AR69" s="3"/>
       <c r="AS69" s="3"/>
     </row>
-    <row r="70" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="27"/>
@@ -7150,7 +7258,7 @@
       <c r="AR70" s="3"/>
       <c r="AS70" s="3"/>
     </row>
-    <row r="71" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="27"/>
@@ -7197,7 +7305,7 @@
       <c r="AR71" s="3"/>
       <c r="AS71" s="3"/>
     </row>
-    <row r="72" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="27"/>
@@ -7244,7 +7352,7 @@
       <c r="AR72" s="3"/>
       <c r="AS72" s="3"/>
     </row>
-    <row r="73" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="27"/>
@@ -7291,7 +7399,7 @@
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
     </row>
-    <row r="74" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="27"/>
@@ -7338,7 +7446,7 @@
       <c r="AR74" s="3"/>
       <c r="AS74" s="3"/>
     </row>
-    <row r="75" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="27"/>
@@ -7385,7 +7493,7 @@
       <c r="AR75" s="3"/>
       <c r="AS75" s="3"/>
     </row>
-    <row r="76" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="27"/>
@@ -7432,7 +7540,7 @@
       <c r="AR76" s="3"/>
       <c r="AS76" s="3"/>
     </row>
-    <row r="77" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="27"/>
@@ -7479,7 +7587,7 @@
       <c r="AR77" s="3"/>
       <c r="AS77" s="3"/>
     </row>
-    <row r="78" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="27"/>
@@ -7526,7 +7634,7 @@
       <c r="AR78" s="3"/>
       <c r="AS78" s="3"/>
     </row>
-    <row r="79" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="27"/>
@@ -7573,7 +7681,7 @@
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
     </row>
-    <row r="80" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="27"/>
@@ -7620,7 +7728,7 @@
       <c r="AR80" s="3"/>
       <c r="AS80" s="3"/>
     </row>
-    <row r="81" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="27"/>
@@ -7667,7 +7775,7 @@
       <c r="AR81" s="3"/>
       <c r="AS81" s="3"/>
     </row>
-    <row r="82" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="27"/>
@@ -7714,7 +7822,7 @@
       <c r="AR82" s="3"/>
       <c r="AS82" s="3"/>
     </row>
-    <row r="83" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="27"/>
@@ -7761,7 +7869,7 @@
       <c r="AR83" s="3"/>
       <c r="AS83" s="3"/>
     </row>
-    <row r="84" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="27"/>
@@ -7808,7 +7916,7 @@
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
     </row>
-    <row r="85" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="27"/>
@@ -7855,7 +7963,7 @@
       <c r="AR85" s="3"/>
       <c r="AS85" s="3"/>
     </row>
-    <row r="86" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="27"/>
@@ -7902,7 +8010,7 @@
       <c r="AR86" s="3"/>
       <c r="AS86" s="3"/>
     </row>
-    <row r="87" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="27"/>
@@ -7949,7 +8057,7 @@
       <c r="AR87" s="3"/>
       <c r="AS87" s="3"/>
     </row>
-    <row r="88" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="27"/>
@@ -7996,7 +8104,7 @@
       <c r="AR88" s="3"/>
       <c r="AS88" s="3"/>
     </row>
-    <row r="89" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="27"/>
@@ -8043,7 +8151,7 @@
       <c r="AR89" s="3"/>
       <c r="AS89" s="3"/>
     </row>
-    <row r="90" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="27"/>
@@ -8090,7 +8198,7 @@
       <c r="AR90" s="3"/>
       <c r="AS90" s="3"/>
     </row>
-    <row r="91" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="27"/>
@@ -8137,7 +8245,7 @@
       <c r="AR91" s="3"/>
       <c r="AS91" s="3"/>
     </row>
-    <row r="92" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="27"/>
@@ -8184,7 +8292,7 @@
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
     </row>
-    <row r="93" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="27"/>
@@ -8231,7 +8339,7 @@
       <c r="AR93" s="3"/>
       <c r="AS93" s="3"/>
     </row>
-    <row r="94" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="27"/>
@@ -8278,7 +8386,7 @@
       <c r="AR94" s="3"/>
       <c r="AS94" s="3"/>
     </row>
-    <row r="95" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="27"/>
@@ -8325,7 +8433,7 @@
       <c r="AR95" s="3"/>
       <c r="AS95" s="3"/>
     </row>
-    <row r="96" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="27"/>
@@ -8372,7 +8480,7 @@
       <c r="AR96" s="3"/>
       <c r="AS96" s="3"/>
     </row>
-    <row r="97" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="27"/>
@@ -8419,7 +8527,7 @@
       <c r="AR97" s="3"/>
       <c r="AS97" s="3"/>
     </row>
-    <row r="98" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="27"/>
@@ -8466,7 +8574,7 @@
       <c r="AR98" s="3"/>
       <c r="AS98" s="3"/>
     </row>
-    <row r="99" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="27"/>
@@ -8513,7 +8621,7 @@
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
     </row>
-    <row r="100" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="27"/>
@@ -8560,7 +8668,7 @@
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
     </row>
-    <row r="101" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="27"/>
@@ -8607,7 +8715,7 @@
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
     </row>
-    <row r="102" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="27"/>
@@ -8654,7 +8762,7 @@
       <c r="AR102" s="3"/>
       <c r="AS102" s="3"/>
     </row>
-    <row r="103" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="27"/>
@@ -8701,7 +8809,7 @@
       <c r="AR103" s="3"/>
       <c r="AS103" s="3"/>
     </row>
-    <row r="104" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="27"/>
@@ -8748,7 +8856,7 @@
       <c r="AR104" s="3"/>
       <c r="AS104" s="3"/>
     </row>
-    <row r="105" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="27"/>
@@ -8795,7 +8903,7 @@
       <c r="AR105" s="3"/>
       <c r="AS105" s="3"/>
     </row>
-    <row r="106" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="27"/>
@@ -8842,7 +8950,7 @@
       <c r="AR106" s="3"/>
       <c r="AS106" s="3"/>
     </row>
-    <row r="107" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="27"/>
@@ -8889,7 +8997,7 @@
       <c r="AR107" s="3"/>
       <c r="AS107" s="3"/>
     </row>
-    <row r="108" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="27"/>
@@ -8936,7 +9044,7 @@
       <c r="AR108" s="3"/>
       <c r="AS108" s="3"/>
     </row>
-    <row r="109" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="27"/>
@@ -8983,7 +9091,7 @@
       <c r="AR109" s="3"/>
       <c r="AS109" s="3"/>
     </row>
-    <row r="110" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="27"/>
@@ -9030,7 +9138,7 @@
       <c r="AR110" s="3"/>
       <c r="AS110" s="3"/>
     </row>
-    <row r="111" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="27"/>
@@ -9077,7 +9185,7 @@
       <c r="AR111" s="3"/>
       <c r="AS111" s="3"/>
     </row>
-    <row r="112" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="27"/>
@@ -9124,7 +9232,7 @@
       <c r="AR112" s="3"/>
       <c r="AS112" s="3"/>
     </row>
-    <row r="113" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="27"/>
@@ -9171,7 +9279,7 @@
       <c r="AR113" s="3"/>
       <c r="AS113" s="3"/>
     </row>
-    <row r="114" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="27"/>
@@ -9218,7 +9326,7 @@
       <c r="AR114" s="3"/>
       <c r="AS114" s="3"/>
     </row>
-    <row r="115" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="27"/>
@@ -9265,7 +9373,7 @@
       <c r="AR115" s="3"/>
       <c r="AS115" s="3"/>
     </row>
-    <row r="116" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="27"/>
@@ -9312,7 +9420,7 @@
       <c r="AR116" s="3"/>
       <c r="AS116" s="3"/>
     </row>
-    <row r="117" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="27"/>
@@ -9359,7 +9467,7 @@
       <c r="AR117" s="3"/>
       <c r="AS117" s="3"/>
     </row>
-    <row r="118" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="27"/>
@@ -9406,7 +9514,7 @@
       <c r="AR118" s="3"/>
       <c r="AS118" s="3"/>
     </row>
-    <row r="119" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="27"/>
@@ -9453,7 +9561,7 @@
       <c r="AR119" s="3"/>
       <c r="AS119" s="3"/>
     </row>
-    <row r="120" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="27"/>
@@ -9500,7 +9608,7 @@
       <c r="AR120" s="3"/>
       <c r="AS120" s="3"/>
     </row>
-    <row r="121" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="27"/>
@@ -9547,7 +9655,7 @@
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
     </row>
-    <row r="122" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="27"/>
@@ -9594,7 +9702,7 @@
       <c r="AR122" s="3"/>
       <c r="AS122" s="3"/>
     </row>
-    <row r="123" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="27"/>
@@ -9641,7 +9749,7 @@
       <c r="AR123" s="3"/>
       <c r="AS123" s="3"/>
     </row>
-    <row r="124" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="27"/>
@@ -9688,7 +9796,7 @@
       <c r="AR124" s="3"/>
       <c r="AS124" s="3"/>
     </row>
-    <row r="125" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="27"/>
@@ -9735,7 +9843,7 @@
       <c r="AR125" s="3"/>
       <c r="AS125" s="3"/>
     </row>
-    <row r="126" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="27"/>
@@ -9782,7 +9890,7 @@
       <c r="AR126" s="3"/>
       <c r="AS126" s="3"/>
     </row>
-    <row r="127" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="27"/>
@@ -9829,7 +9937,7 @@
       <c r="AR127" s="3"/>
       <c r="AS127" s="3"/>
     </row>
-    <row r="128" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="27"/>
@@ -9876,7 +9984,7 @@
       <c r="AR128" s="3"/>
       <c r="AS128" s="3"/>
     </row>
-    <row r="129" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="27"/>
@@ -9923,7 +10031,7 @@
       <c r="AR129" s="3"/>
       <c r="AS129" s="3"/>
     </row>
-    <row r="130" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="27"/>
@@ -9970,7 +10078,7 @@
       <c r="AR130" s="3"/>
       <c r="AS130" s="3"/>
     </row>
-    <row r="131" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="27"/>
@@ -10017,7 +10125,7 @@
       <c r="AR131" s="3"/>
       <c r="AS131" s="3"/>
     </row>
-    <row r="132" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="27"/>
@@ -10064,7 +10172,7 @@
       <c r="AR132" s="3"/>
       <c r="AS132" s="3"/>
     </row>
-    <row r="133" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="27"/>
@@ -10111,7 +10219,7 @@
       <c r="AR133" s="3"/>
       <c r="AS133" s="3"/>
     </row>
-    <row r="134" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="27"/>
@@ -10158,7 +10266,7 @@
       <c r="AR134" s="3"/>
       <c r="AS134" s="3"/>
     </row>
-    <row r="135" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="27"/>
@@ -10205,7 +10313,7 @@
       <c r="AR135" s="3"/>
       <c r="AS135" s="3"/>
     </row>
-    <row r="136" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="27"/>
@@ -10252,7 +10360,7 @@
       <c r="AR136" s="3"/>
       <c r="AS136" s="3"/>
     </row>
-    <row r="137" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="27"/>
@@ -10299,7 +10407,7 @@
       <c r="AR137" s="3"/>
       <c r="AS137" s="3"/>
     </row>
-    <row r="138" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="27"/>
@@ -10346,7 +10454,7 @@
       <c r="AR138" s="3"/>
       <c r="AS138" s="3"/>
     </row>
-    <row r="139" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="27"/>
@@ -10393,7 +10501,7 @@
       <c r="AR139" s="3"/>
       <c r="AS139" s="3"/>
     </row>
-    <row r="140" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="27"/>
@@ -10440,7 +10548,7 @@
       <c r="AR140" s="3"/>
       <c r="AS140" s="3"/>
     </row>
-    <row r="141" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="27"/>
@@ -10487,7 +10595,7 @@
       <c r="AR141" s="3"/>
       <c r="AS141" s="3"/>
     </row>
-    <row r="142" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="27"/>
@@ -10534,7 +10642,7 @@
       <c r="AR142" s="3"/>
       <c r="AS142" s="3"/>
     </row>
-    <row r="143" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="27"/>
@@ -10581,7 +10689,7 @@
       <c r="AR143" s="3"/>
       <c r="AS143" s="3"/>
     </row>
-    <row r="144" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="27"/>
@@ -10628,7 +10736,7 @@
       <c r="AR144" s="3"/>
       <c r="AS144" s="3"/>
     </row>
-    <row r="145" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="27"/>
@@ -10675,7 +10783,7 @@
       <c r="AR145" s="3"/>
       <c r="AS145" s="3"/>
     </row>
-    <row r="146" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="27"/>
@@ -10722,7 +10830,7 @@
       <c r="AR146" s="3"/>
       <c r="AS146" s="3"/>
     </row>
-    <row r="147" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="27"/>
@@ -10769,7 +10877,7 @@
       <c r="AR147" s="3"/>
       <c r="AS147" s="3"/>
     </row>
-    <row r="148" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="27"/>
@@ -10816,7 +10924,7 @@
       <c r="AR148" s="3"/>
       <c r="AS148" s="3"/>
     </row>
-    <row r="149" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="27"/>
@@ -10863,7 +10971,7 @@
       <c r="AR149" s="3"/>
       <c r="AS149" s="3"/>
     </row>
-    <row r="150" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="27"/>
@@ -10910,7 +11018,7 @@
       <c r="AR150" s="3"/>
       <c r="AS150" s="3"/>
     </row>
-    <row r="151" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="27"/>
@@ -10957,7 +11065,7 @@
       <c r="AR151" s="3"/>
       <c r="AS151" s="3"/>
     </row>
-    <row r="152" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="27"/>
@@ -11004,7 +11112,7 @@
       <c r="AR152" s="3"/>
       <c r="AS152" s="3"/>
     </row>
-    <row r="153" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="27"/>
@@ -11051,7 +11159,7 @@
       <c r="AR153" s="3"/>
       <c r="AS153" s="3"/>
     </row>
-    <row r="154" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="27"/>
@@ -11098,7 +11206,7 @@
       <c r="AR154" s="3"/>
       <c r="AS154" s="3"/>
     </row>
-    <row r="155" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="27"/>
@@ -11145,7 +11253,7 @@
       <c r="AR155" s="3"/>
       <c r="AS155" s="3"/>
     </row>
-    <row r="156" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="27"/>
@@ -11192,7 +11300,7 @@
       <c r="AR156" s="3"/>
       <c r="AS156" s="3"/>
     </row>
-    <row r="157" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="27"/>
@@ -11239,7 +11347,7 @@
       <c r="AR157" s="3"/>
       <c r="AS157" s="3"/>
     </row>
-    <row r="158" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="27"/>
@@ -11286,7 +11394,7 @@
       <c r="AR158" s="3"/>
       <c r="AS158" s="3"/>
     </row>
-    <row r="159" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="27"/>
@@ -11333,7 +11441,7 @@
       <c r="AR159" s="3"/>
       <c r="AS159" s="3"/>
     </row>
-    <row r="160" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="27"/>
@@ -11380,7 +11488,7 @@
       <c r="AR160" s="3"/>
       <c r="AS160" s="3"/>
     </row>
-    <row r="161" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="27"/>
@@ -11427,7 +11535,7 @@
       <c r="AR161" s="3"/>
       <c r="AS161" s="3"/>
     </row>
-    <row r="162" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="27"/>
@@ -11474,7 +11582,7 @@
       <c r="AR162" s="3"/>
       <c r="AS162" s="3"/>
     </row>
-    <row r="163" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="27"/>
@@ -11521,7 +11629,7 @@
       <c r="AR163" s="3"/>
       <c r="AS163" s="3"/>
     </row>
-    <row r="164" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="27"/>
@@ -11568,7 +11676,7 @@
       <c r="AR164" s="3"/>
       <c r="AS164" s="3"/>
     </row>
-    <row r="165" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="27"/>
@@ -11615,7 +11723,7 @@
       <c r="AR165" s="3"/>
       <c r="AS165" s="3"/>
     </row>
-    <row r="166" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="27"/>
@@ -11662,7 +11770,7 @@
       <c r="AR166" s="3"/>
       <c r="AS166" s="3"/>
     </row>
-    <row r="167" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="27"/>
@@ -11709,7 +11817,7 @@
       <c r="AR167" s="3"/>
       <c r="AS167" s="3"/>
     </row>
-    <row r="168" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="27"/>
@@ -11756,7 +11864,7 @@
       <c r="AR168" s="3"/>
       <c r="AS168" s="3"/>
     </row>
-    <row r="169" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="27"/>
@@ -11803,7 +11911,7 @@
       <c r="AR169" s="3"/>
       <c r="AS169" s="3"/>
     </row>
-    <row r="170" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="27"/>
@@ -11850,7 +11958,7 @@
       <c r="AR170" s="3"/>
       <c r="AS170" s="3"/>
     </row>
-    <row r="171" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="27"/>
@@ -11897,7 +12005,7 @@
       <c r="AR171" s="3"/>
       <c r="AS171" s="3"/>
     </row>
-    <row r="172" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="27"/>
@@ -11944,7 +12052,7 @@
       <c r="AR172" s="3"/>
       <c r="AS172" s="3"/>
     </row>
-    <row r="173" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="27"/>
@@ -11991,7 +12099,7 @@
       <c r="AR173" s="3"/>
       <c r="AS173" s="3"/>
     </row>
-    <row r="174" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="27"/>
@@ -12038,7 +12146,7 @@
       <c r="AR174" s="3"/>
       <c r="AS174" s="3"/>
     </row>
-    <row r="175" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="27"/>
@@ -12085,7 +12193,7 @@
       <c r="AR175" s="3"/>
       <c r="AS175" s="3"/>
     </row>
-    <row r="176" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="27"/>
@@ -12132,7 +12240,7 @@
       <c r="AR176" s="3"/>
       <c r="AS176" s="3"/>
     </row>
-    <row r="177" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="27"/>
@@ -12179,7 +12287,7 @@
       <c r="AR177" s="3"/>
       <c r="AS177" s="3"/>
     </row>
-    <row r="178" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="27"/>
@@ -12226,7 +12334,7 @@
       <c r="AR178" s="3"/>
       <c r="AS178" s="3"/>
     </row>
-    <row r="179" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="27"/>
@@ -12273,7 +12381,7 @@
       <c r="AR179" s="3"/>
       <c r="AS179" s="3"/>
     </row>
-    <row r="180" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="27"/>
@@ -12320,7 +12428,7 @@
       <c r="AR180" s="3"/>
       <c r="AS180" s="3"/>
     </row>
-    <row r="181" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="27"/>
@@ -12367,7 +12475,7 @@
       <c r="AR181" s="3"/>
       <c r="AS181" s="3"/>
     </row>
-    <row r="182" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="27"/>
@@ -12414,7 +12522,7 @@
       <c r="AR182" s="3"/>
       <c r="AS182" s="3"/>
     </row>
-    <row r="183" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="27"/>
@@ -12461,7 +12569,7 @@
       <c r="AR183" s="3"/>
       <c r="AS183" s="3"/>
     </row>
-    <row r="184" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="27"/>
@@ -12508,7 +12616,7 @@
       <c r="AR184" s="3"/>
       <c r="AS184" s="3"/>
     </row>
-    <row r="185" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="27"/>
@@ -12555,7 +12663,7 @@
       <c r="AR185" s="3"/>
       <c r="AS185" s="3"/>
     </row>
-    <row r="186" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="27"/>

--- a/box表.xlsx
+++ b/box表.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\pcrbattle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengjk\Desktop\pcrbattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7799B-E1F4-40C3-96A4-A291982DD716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4033BEE-82E8-4B3A-99E3-8DF72A70ACCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$186</definedName>
+  </definedNames>
   <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
@@ -25,7 +28,7 @@
     <author>游戏之王</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="135">
   <si>
     <r>
       <rPr>
@@ -462,17 +465,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>3没练</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>11～2</t>
     </r>
   </si>
@@ -611,17 +603,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>3r10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>3x r7</t>
     </r>
   </si>
@@ -667,17 +648,6 @@
         <charset val="134"/>
       </rPr>
       <t>r10-6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3可母</t>
     </r>
   </si>
   <si>
@@ -1541,7 +1511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1654,9 +1624,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2009,47 +1976,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP4" sqref="AP4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
+    <col min="7" max="8" width="10.19921875" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="16.375" customWidth="1"/>
-    <col min="16" max="16" width="17.375" customWidth="1"/>
-    <col min="17" max="17" width="18.875" customWidth="1"/>
-    <col min="18" max="18" width="15.625" customWidth="1"/>
-    <col min="19" max="19" width="12.875" customWidth="1"/>
-    <col min="20" max="20" width="15.875" customWidth="1"/>
-    <col min="21" max="21" width="8.125" customWidth="1"/>
-    <col min="22" max="26" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" customWidth="1"/>
+    <col min="17" max="17" width="18.8984375" customWidth="1"/>
+    <col min="18" max="18" width="15.59765625" customWidth="1"/>
+    <col min="19" max="19" width="12.8984375" customWidth="1"/>
+    <col min="20" max="20" width="15.8984375" customWidth="1"/>
+    <col min="21" max="21" width="8.09765625" customWidth="1"/>
+    <col min="22" max="26" width="10.3984375" customWidth="1"/>
     <col min="27" max="27" width="19.5" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="30" width="10.375" customWidth="1"/>
-    <col min="31" max="31" width="21.75" customWidth="1"/>
-    <col min="32" max="36" width="10.375" customWidth="1"/>
+    <col min="29" max="30" width="10.3984375" customWidth="1"/>
+    <col min="31" max="31" width="21.69921875" customWidth="1"/>
+    <col min="32" max="36" width="10.3984375" customWidth="1"/>
     <col min="37" max="37" width="9" customWidth="1"/>
-    <col min="38" max="38" width="10.375" customWidth="1"/>
-    <col min="39" max="39" width="19.375" customWidth="1"/>
-    <col min="40" max="40" width="19.625" customWidth="1"/>
-    <col min="41" max="45" width="12.875" customWidth="1"/>
+    <col min="38" max="38" width="10.3984375" customWidth="1"/>
+    <col min="39" max="39" width="19.3984375" customWidth="1"/>
+    <col min="40" max="40" width="19.59765625" customWidth="1"/>
+    <col min="41" max="45" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2162,88 +2129,96 @@
         <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
     </row>
-    <row r="2" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D2" s="33">
         <v>4</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="45">
+        <v>3</v>
+      </c>
+      <c r="F2" s="45">
+        <v>3</v>
+      </c>
+      <c r="G2" s="45">
+        <v>3</v>
+      </c>
+      <c r="H2" s="45">
+        <v>5</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="48">
         <v>4</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="33">
-        <v>3</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="34">
+      <c r="K2" s="45">
+        <v>5</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="36">
+        <v>5</v>
+      </c>
+      <c r="N2" s="10">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="45">
+        <v>1</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="9">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="13">
+        <v>1</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1</v>
+      </c>
+      <c r="X2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="11">
         <v>4</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="10">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6">
-        <v>1</v>
-      </c>
-      <c r="P2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="R2" s="46">
-        <v>1</v>
-      </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="9">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="13">
-        <v>1</v>
-      </c>
-      <c r="W2" s="7">
-        <v>1</v>
-      </c>
-      <c r="X2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>5</v>
+      <c r="AB2" s="16">
+        <v>4</v>
       </c>
       <c r="AC2" s="7">
         <v>1</v>
@@ -2287,40 +2262,34 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="33">
+        <v>19</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="46">
+        <v>5</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46">
+        <v>3</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46">
+        <v>3</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="35">
         <v>4</v>
       </c>
-      <c r="E3" s="34">
-        <v>4</v>
-      </c>
-      <c r="F3" s="34">
-        <v>3</v>
-      </c>
-      <c r="G3" s="33">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="34">
-        <v>4</v>
-      </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="36">
-        <v>3</v>
-      </c>
       <c r="N3" s="10">
         <v>1</v>
       </c>
@@ -2331,12 +2300,12 @@
         <v>1</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="46">
-        <v>1</v>
-      </c>
-      <c r="S3" s="45"/>
+        <v>124</v>
+      </c>
+      <c r="R3" s="45">
+        <v>1</v>
+      </c>
+      <c r="S3" s="49"/>
       <c r="T3" s="9">
         <v>1</v>
       </c>
@@ -2358,7 +2327,7 @@
       <c r="Z3" s="7">
         <v>1</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="14">
         <v>4</v>
       </c>
       <c r="AB3" s="7">
@@ -2406,40 +2375,36 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="33">
+        <v>4</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48">
+        <v>4</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="45">
+        <v>4</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="35">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="33">
-        <v>5</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34">
-        <v>3</v>
-      </c>
-      <c r="G4" s="33">
-        <v>3</v>
-      </c>
-      <c r="H4" s="33">
-        <v>3</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="34">
-        <v>4</v>
-      </c>
-      <c r="K4" s="34">
-        <v>5</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="36"/>
       <c r="N4" s="10">
         <v>1</v>
       </c>
@@ -2449,13 +2414,13 @@
       <c r="P4" s="9">
         <v>1</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="R4" s="46">
-        <v>1</v>
-      </c>
-      <c r="S4" s="48"/>
+      <c r="R4" s="45">
+        <v>1</v>
+      </c>
+      <c r="S4" s="47"/>
       <c r="T4" s="9">
         <v>1</v>
       </c>
@@ -2525,80 +2490,82 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
+        <v>23</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="46">
+        <v>5</v>
+      </c>
+      <c r="E5" s="46">
         <v>4</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="33">
+      <c r="F5" s="46"/>
+      <c r="G5" s="46">
+        <v>3</v>
+      </c>
+      <c r="H5" s="46">
+        <v>3</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="45">
+        <v>4</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="35">
+        <v>3</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="R5" s="45">
+        <v>1</v>
+      </c>
+      <c r="S5" s="47"/>
+      <c r="T5" s="9">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13">
+        <v>1</v>
+      </c>
+      <c r="W5" s="7">
+        <v>1</v>
+      </c>
+      <c r="X5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="14">
         <v>5</v>
       </c>
-      <c r="E5" s="34">
+      <c r="AB5" s="7">
         <v>4</v>
-      </c>
-      <c r="F5" s="34">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34">
-        <v>2</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34">
-        <v>3</v>
-      </c>
-      <c r="J5" s="34">
-        <v>4</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="10">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="R5" s="46">
-        <v>1</v>
-      </c>
-      <c r="S5" s="48"/>
-      <c r="T5" s="9">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="13">
-        <v>1</v>
-      </c>
-      <c r="W5" s="7">
-        <v>1</v>
-      </c>
-      <c r="X5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>5</v>
       </c>
       <c r="AC5" s="7">
         <v>1</v>
@@ -2642,80 +2609,84 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
+        <v>18</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="45">
+        <v>4</v>
+      </c>
+      <c r="E6" s="45">
+        <v>4</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45">
+        <v>3</v>
+      </c>
+      <c r="J6" s="45">
+        <v>4</v>
+      </c>
+      <c r="K6" s="45">
         <v>5</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="33">
-        <v>5</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34">
+      <c r="L6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="35">
         <v>3</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="33">
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" s="45">
+        <v>1</v>
+      </c>
+      <c r="S6" s="47"/>
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="13">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7">
+        <v>1</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="10">
         <v>4</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34">
-        <v>112</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="10">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="R6" s="46">
-        <v>1</v>
-      </c>
-      <c r="S6" s="48"/>
-      <c r="T6" s="9">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="13">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7">
-        <v>1</v>
-      </c>
-      <c r="X6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>4116</v>
-      </c>
       <c r="AB6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC6" s="7">
         <v>1</v>
@@ -2759,36 +2730,40 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="D7" s="33">
-        <v>5</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="46">
+        <v>4</v>
+      </c>
+      <c r="F7" s="46">
+        <v>3</v>
+      </c>
       <c r="G7" s="33">
         <v>3</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="33">
+        <v>44</v>
+      </c>
+      <c r="J7" s="46">
         <v>4</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="36"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="36">
+        <v>3</v>
+      </c>
       <c r="N7" s="10">
         <v>1</v>
       </c>
@@ -2798,13 +2773,13 @@
       <c r="P7" s="9">
         <v>1</v>
       </c>
-      <c r="Q7" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R7" s="46">
-        <v>1</v>
-      </c>
-      <c r="S7" s="48"/>
+      <c r="Q7" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="R7" s="45">
+        <v>1</v>
+      </c>
+      <c r="S7" s="44"/>
       <c r="T7" s="9">
         <v>1</v>
       </c>
@@ -2829,7 +2804,7 @@
       <c r="AA7" s="10">
         <v>4</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="7">
         <v>4</v>
       </c>
       <c r="AC7" s="7">
@@ -2874,35 +2849,39 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="33">
+        <v>5</v>
+      </c>
+      <c r="E8" s="45">
         <v>4</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38">
+      <c r="F8" s="45">
+        <v>3</v>
+      </c>
+      <c r="G8" s="45">
+        <v>3</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="46">
         <v>4</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="33">
-        <v>4</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>55</v>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="36">
+        <v>3</v>
       </c>
       <c r="N8" s="10">
         <v>1</v>
@@ -2913,13 +2892,13 @@
       <c r="P8" s="9">
         <v>1</v>
       </c>
-      <c r="Q8" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="R8" s="46">
-        <v>1</v>
-      </c>
-      <c r="S8" s="48"/>
+      <c r="Q8" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="45">
+        <v>1</v>
+      </c>
+      <c r="S8" s="49"/>
       <c r="T8" s="9">
         <v>1</v>
       </c>
@@ -2941,8 +2920,8 @@
       <c r="Z8" s="7">
         <v>1</v>
       </c>
-      <c r="AA8" s="10">
-        <v>4</v>
+      <c r="AA8" s="14">
+        <v>5</v>
       </c>
       <c r="AB8" s="6">
         <v>5</v>
@@ -2989,29 +2968,29 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="33">
+        <v>3</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="45">
         <v>5</v>
       </c>
-      <c r="E9" s="33">
-        <v>4</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="E9" s="45"/>
+      <c r="F9" s="46">
         <v>3</v>
       </c>
-      <c r="G9" s="33">
-        <v>4</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33" t="s">
-        <v>53</v>
+      <c r="G9" s="45">
+        <v>3</v>
+      </c>
+      <c r="H9" s="45">
+        <v>3</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="J9" s="34">
         <v>4</v>
@@ -3019,8 +2998,8 @@
       <c r="K9" s="34">
         <v>5</v>
       </c>
-      <c r="L9" s="33" t="s">
-        <v>56</v>
+      <c r="L9" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="M9" s="36"/>
       <c r="N9" s="10">
@@ -3032,13 +3011,13 @@
       <c r="P9" s="9">
         <v>1</v>
       </c>
-      <c r="Q9" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="46">
-        <v>1</v>
-      </c>
-      <c r="S9" s="50"/>
+      <c r="Q9" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" s="45">
+        <v>1</v>
+      </c>
+      <c r="S9" s="47"/>
       <c r="T9" s="9">
         <v>1</v>
       </c>
@@ -3060,8 +3039,8 @@
       <c r="Z9" s="7">
         <v>1</v>
       </c>
-      <c r="AA9" s="14">
-        <v>5</v>
+      <c r="AA9" s="10">
+        <v>4</v>
       </c>
       <c r="AB9" s="6">
         <v>5</v>
@@ -3108,38 +3087,38 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="33">
+        <v>8</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="45">
         <v>5</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="45">
         <v>4</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="45">
         <v>3</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="45">
         <v>4</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="33">
+        <v>53</v>
+      </c>
+      <c r="J10" s="46">
         <v>4</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="46">
         <v>5</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M10" s="36"/>
       <c r="N10" s="10">
@@ -3151,13 +3130,13 @@
       <c r="P10" s="9">
         <v>1</v>
       </c>
-      <c r="Q10" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="R10" s="46">
-        <v>1</v>
-      </c>
-      <c r="S10" s="50"/>
+      <c r="Q10" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="45">
+        <v>1</v>
+      </c>
+      <c r="S10" s="49"/>
       <c r="T10" s="9">
         <v>1</v>
       </c>
@@ -3179,8 +3158,8 @@
       <c r="Z10" s="7">
         <v>1</v>
       </c>
-      <c r="AA10" s="10">
-        <v>4</v>
+      <c r="AA10" s="14">
+        <v>5</v>
       </c>
       <c r="AB10" s="6">
         <v>5</v>
@@ -3227,36 +3206,38 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="34">
+        <v>9</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="45">
         <v>5</v>
       </c>
       <c r="E11" s="33">
         <v>4</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="46">
         <v>3</v>
       </c>
-      <c r="G11" s="34">
-        <v>3</v>
-      </c>
-      <c r="H11" s="34"/>
+      <c r="G11" s="45">
+        <v>4</v>
+      </c>
+      <c r="H11" s="46"/>
       <c r="I11" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="45">
         <v>4</v>
       </c>
-      <c r="K11" s="34"/>
+      <c r="K11" s="45">
+        <v>5</v>
+      </c>
       <c r="L11" s="33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M11" s="36"/>
       <c r="N11" s="10">
@@ -3268,13 +3249,13 @@
       <c r="P11" s="9">
         <v>1</v>
       </c>
-      <c r="Q11" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="R11" s="46">
-        <v>1</v>
-      </c>
-      <c r="S11" s="48"/>
+      <c r="Q11" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="45">
+        <v>1</v>
+      </c>
+      <c r="S11" s="49"/>
       <c r="T11" s="9">
         <v>1</v>
       </c>
@@ -3297,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="AA11" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB11" s="6">
         <v>5</v>
@@ -3344,33 +3325,33 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>100</v>
+      <c r="C12" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="D12" s="33">
         <v>5</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="45">
         <v>4</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="33">
+        <v>57</v>
+      </c>
+      <c r="J12" s="45">
         <v>4</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="45">
         <v>5</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="45" t="s">
         <v>52</v>
       </c>
       <c r="M12" s="36"/>
@@ -3383,11 +3364,11 @@
       <c r="P12" s="9">
         <v>1</v>
       </c>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46">
-        <v>1</v>
-      </c>
-      <c r="S12" s="50"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45">
+        <v>1</v>
+      </c>
+      <c r="S12" s="49"/>
       <c r="T12" s="9">
         <v>1</v>
       </c>
@@ -3457,37 +3438,35 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
-        <v>12</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="33">
+        <v>25</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="46">
+        <v>4</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46">
+        <v>3</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="46">
+        <v>4</v>
+      </c>
+      <c r="K13" s="34">
         <v>5</v>
       </c>
-      <c r="E13" s="33">
-        <v>4</v>
-      </c>
-      <c r="F13" s="33">
-        <v>3</v>
-      </c>
-      <c r="G13" s="33">
-        <v>3</v>
-      </c>
-      <c r="H13" s="33">
-        <v>3</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="33">
-        <v>4</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="L13" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="M13" s="36"/>
       <c r="N13" s="10">
         <v>1</v>
@@ -3499,12 +3478,12 @@
         <v>1</v>
       </c>
       <c r="Q13" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="R13" s="46">
-        <v>1</v>
-      </c>
-      <c r="S13" s="50"/>
+        <v>129</v>
+      </c>
+      <c r="R13" s="45">
+        <v>1</v>
+      </c>
+      <c r="S13" s="47"/>
       <c r="T13" s="9">
         <v>1</v>
       </c>
@@ -3526,11 +3505,11 @@
       <c r="Z13" s="7">
         <v>1</v>
       </c>
-      <c r="AA13" s="10">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="6">
+      <c r="AA13" s="14">
         <v>4</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="AC13" s="7">
         <v>1</v>
@@ -3574,86 +3553,82 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
-        <v>13</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="33">
+        <v>26</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="46">
+        <v>5</v>
+      </c>
+      <c r="E14" s="46">
         <v>4</v>
       </c>
-      <c r="E14" s="33">
+      <c r="F14" s="46">
         <v>3</v>
       </c>
-      <c r="F14" s="33">
+      <c r="G14" s="46">
         <v>3</v>
       </c>
-      <c r="G14" s="33">
-        <v>3</v>
-      </c>
-      <c r="H14" s="33">
+      <c r="H14" s="46"/>
+      <c r="I14" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="46">
+        <v>4</v>
+      </c>
+      <c r="K14" s="46">
         <v>5</v>
       </c>
-      <c r="I14" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="38">
+      <c r="L14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" s="45">
+        <v>1</v>
+      </c>
+      <c r="S14" s="47"/>
+      <c r="T14" s="9">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="13">
+        <v>1</v>
+      </c>
+      <c r="W14" s="7">
+        <v>1</v>
+      </c>
+      <c r="X14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="14">
         <v>4</v>
       </c>
-      <c r="K14" s="33">
-        <v>5</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="36">
-        <v>5</v>
-      </c>
-      <c r="N14" s="10">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1</v>
-      </c>
-      <c r="P14" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="R14" s="46">
-        <v>1</v>
-      </c>
-      <c r="S14" s="50"/>
-      <c r="T14" s="9">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="V14" s="13">
-        <v>1</v>
-      </c>
-      <c r="W14" s="7">
-        <v>1</v>
-      </c>
-      <c r="X14" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>4</v>
+      <c r="AB14" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="AC14" s="7">
         <v>1</v>
@@ -3697,26 +3672,38 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
-        <v>14</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="33">
+        <v>29</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="46">
+        <v>5</v>
+      </c>
+      <c r="E15" s="46">
         <v>4</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="37" t="s">
-        <v>62</v>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46">
+        <v>4</v>
+      </c>
+      <c r="H15" s="46">
+        <v>3</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="46">
+        <v>4</v>
+      </c>
+      <c r="K15" s="34">
+        <v>5</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="10">
@@ -3728,10 +3715,10 @@
       <c r="P15" s="9">
         <v>1</v>
       </c>
-      <c r="Q15" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R15" s="46">
+      <c r="Q15" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="R15" s="45">
         <v>1</v>
       </c>
       <c r="S15" s="50"/>
@@ -3756,12 +3743,12 @@
       <c r="Z15" s="7">
         <v>1</v>
       </c>
-      <c r="AA15" s="10">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="6">
+      <c r="AA15" s="14">
         <v>4</v>
       </c>
+      <c r="AB15" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AC15" s="7">
         <v>1</v>
       </c>
@@ -3774,7 +3761,7 @@
       <c r="AF15" s="7">
         <v>1</v>
       </c>
-      <c r="AG15" s="8"/>
+      <c r="AG15" s="9"/>
       <c r="AH15" s="3">
         <v>1</v>
       </c>
@@ -3804,40 +3791,36 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
-        <v>15</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="D16" s="33">
-        <v>5</v>
-      </c>
-      <c r="E16" s="33">
         <v>4</v>
       </c>
-      <c r="F16" s="33">
+      <c r="E16" s="45">
+        <v>4</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" s="45">
         <v>3</v>
       </c>
-      <c r="G16" s="33">
-        <v>3</v>
-      </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="34">
+        <v>42</v>
+      </c>
+      <c r="J16" s="46">
         <v>4</v>
       </c>
-      <c r="K16" s="33"/>
+      <c r="K16" s="46"/>
       <c r="L16" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="36">
-        <v>3</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="M16" s="36"/>
       <c r="N16" s="10">
         <v>1</v>
       </c>
@@ -3847,13 +3830,13 @@
       <c r="P16" s="9">
         <v>1</v>
       </c>
-      <c r="Q16" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="R16" s="46">
-        <v>1</v>
-      </c>
-      <c r="S16" s="50"/>
+      <c r="Q16" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" s="45">
+        <v>1</v>
+      </c>
+      <c r="S16" s="47"/>
       <c r="T16" s="9">
         <v>1</v>
       </c>
@@ -3875,7 +3858,7 @@
       <c r="Z16" s="7">
         <v>1</v>
       </c>
-      <c r="AA16" s="14">
+      <c r="AA16" s="10">
         <v>5</v>
       </c>
       <c r="AB16" s="6">
@@ -3923,30 +3906,36 @@
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
-        <v>16</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="33">
+        <v>4</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="45">
         <v>5</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33">
+      <c r="E17" s="46">
+        <v>4</v>
+      </c>
+      <c r="F17" s="46">
         <v>3</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34">
+      <c r="G17" s="46">
+        <v>2</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46">
+        <v>3</v>
+      </c>
+      <c r="J17" s="46">
         <v>4</v>
       </c>
       <c r="K17" s="34"/>
       <c r="L17" s="33" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M17" s="36"/>
       <c r="N17" s="10">
@@ -3958,13 +3947,13 @@
       <c r="P17" s="9">
         <v>1</v>
       </c>
-      <c r="Q17" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="R17" s="46">
-        <v>1</v>
-      </c>
-      <c r="S17" s="48"/>
+      <c r="Q17" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="45">
+        <v>1</v>
+      </c>
+      <c r="S17" s="47"/>
       <c r="T17" s="9">
         <v>1</v>
       </c>
@@ -3987,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="AA17" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB17" s="6">
         <v>5</v>
@@ -4034,34 +4023,36 @@
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="34">
-        <v>4</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34">
-        <v>2</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="33" t="s">
-        <v>66</v>
+        <v>91</v>
+      </c>
+      <c r="D18" s="33">
+        <v>5</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46">
+        <v>3</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>50</v>
       </c>
       <c r="J18" s="33">
         <v>4</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34" t="s">
-        <v>67</v>
+      <c r="K18" s="45"/>
+      <c r="L18" s="34">
+        <v>112</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="10">
@@ -4073,13 +4064,13 @@
       <c r="P18" s="9">
         <v>1</v>
       </c>
-      <c r="Q18" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R18" s="46">
-        <v>1</v>
-      </c>
-      <c r="S18" s="50"/>
+      <c r="Q18" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="45">
+        <v>1</v>
+      </c>
+      <c r="S18" s="47"/>
       <c r="T18" s="9">
         <v>1</v>
       </c>
@@ -4102,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="AA18" s="10">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>4</v>
+        <v>4116</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>5</v>
       </c>
       <c r="AC18" s="7">
         <v>1</v>
@@ -4149,42 +4140,36 @@
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
-        <v>18</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>107</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>92</v>
       </c>
       <c r="D19" s="33">
-        <v>4</v>
-      </c>
-      <c r="E19" s="33">
-        <v>4</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33">
+        <v>5</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33">
         <v>3</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="J19" s="33">
         <v>4</v>
       </c>
-      <c r="K19" s="33">
-        <v>5</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>70</v>
-      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="36"/>
       <c r="N19" s="10">
         <v>1</v>
       </c>
@@ -4194,13 +4179,13 @@
       <c r="P19" s="9">
         <v>1</v>
       </c>
-      <c r="Q19" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="R19" s="46">
-        <v>1</v>
-      </c>
-      <c r="S19" s="48"/>
+      <c r="Q19" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="45">
+        <v>1</v>
+      </c>
+      <c r="S19" s="47"/>
       <c r="T19" s="9">
         <v>1</v>
       </c>
@@ -4270,34 +4255,38 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="34">
+        <v>96</v>
+      </c>
+      <c r="D20" s="46">
         <v>5</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34">
+      <c r="E20" s="45">
+        <v>4</v>
+      </c>
+      <c r="F20" s="45">
         <v>3</v>
       </c>
+      <c r="G20" s="46">
+        <v>3</v>
+      </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="34">
-        <v>3</v>
-      </c>
-      <c r="J20" s="34">
-        <v>3</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35">
+      <c r="I20" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="45">
         <v>4</v>
       </c>
+      <c r="K20" s="46"/>
+      <c r="L20" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="36"/>
       <c r="N20" s="10">
         <v>1</v>
       </c>
@@ -4307,13 +4296,13 @@
       <c r="P20" s="9">
         <v>1</v>
       </c>
-      <c r="Q20" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="R20" s="46">
-        <v>1</v>
-      </c>
-      <c r="S20" s="50"/>
+      <c r="Q20" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" s="45">
+        <v>1</v>
+      </c>
+      <c r="S20" s="47"/>
       <c r="T20" s="9">
         <v>1</v>
       </c>
@@ -4335,11 +4324,11 @@
       <c r="Z20" s="7">
         <v>1</v>
       </c>
-      <c r="AA20" s="14">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>4</v>
+      <c r="AA20" s="10">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>5</v>
       </c>
       <c r="AC20" s="7">
         <v>1</v>
@@ -4383,35 +4372,37 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
-        <v>20</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="D21" s="33">
         <v>5</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="45">
         <v>4</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="45">
+        <v>3</v>
+      </c>
       <c r="G21" s="33">
-        <v>2</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="33">
+        <v>3</v>
+      </c>
+      <c r="H21" s="33">
+        <v>3</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="45">
         <v>4</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33" t="s">
-        <v>64</v>
-      </c>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="36"/>
       <c r="N21" s="10">
         <v>1</v>
@@ -4422,13 +4413,13 @@
       <c r="P21" s="9">
         <v>1</v>
       </c>
-      <c r="Q21" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="R21" s="46">
-        <v>1</v>
-      </c>
-      <c r="S21" s="50"/>
+      <c r="Q21" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="R21" s="45">
+        <v>1</v>
+      </c>
+      <c r="S21" s="49"/>
       <c r="T21" s="9">
         <v>1</v>
       </c>
@@ -4451,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="AA21" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB21" s="6">
         <v>4</v>
@@ -4498,32 +4489,26 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
-        <v>21</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="34">
-        <v>5</v>
-      </c>
-      <c r="E22" s="34">
-        <v>3</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="34" t="s">
-        <v>72</v>
-      </c>
+      <c r="I22" s="46"/>
       <c r="J22" s="33">
         <v>4</v>
       </c>
       <c r="K22" s="34"/>
-      <c r="L22" s="34" t="s">
-        <v>62</v>
+      <c r="L22" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="M22" s="36"/>
       <c r="N22" s="10">
@@ -4535,13 +4520,13 @@
       <c r="P22" s="9">
         <v>1</v>
       </c>
-      <c r="Q22" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="R22" s="46">
-        <v>1</v>
-      </c>
-      <c r="S22" s="50"/>
+      <c r="Q22" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="R22" s="45">
+        <v>1</v>
+      </c>
+      <c r="S22" s="49"/>
       <c r="T22" s="9">
         <v>1</v>
       </c>
@@ -4564,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB22" s="6">
         <v>4</v>
@@ -4581,7 +4566,7 @@
       <c r="AF22" s="7">
         <v>1</v>
       </c>
-      <c r="AG22" s="9"/>
+      <c r="AG22" s="8"/>
       <c r="AH22" s="3">
         <v>1</v>
       </c>
@@ -4611,34 +4596,30 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="34">
+        <v>102</v>
+      </c>
+      <c r="D23" s="45">
         <v>5</v>
       </c>
-      <c r="E23" s="34">
-        <v>5</v>
-      </c>
-      <c r="F23" s="34">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="45">
         <v>3</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="33">
-        <v>5</v>
+      <c r="H23" s="45"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="46">
+        <v>4</v>
       </c>
       <c r="K23" s="34"/>
-      <c r="L23" s="34">
-        <v>112</v>
+      <c r="L23" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="M23" s="36"/>
       <c r="N23" s="10">
@@ -4650,13 +4631,13 @@
       <c r="P23" s="9">
         <v>1</v>
       </c>
-      <c r="Q23" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="R23" s="46">
-        <v>1</v>
-      </c>
-      <c r="S23" s="50"/>
+      <c r="Q23" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23" s="45">
+        <v>1</v>
+      </c>
+      <c r="S23" s="47"/>
       <c r="T23" s="9">
         <v>1</v>
       </c>
@@ -4679,10 +4660,10 @@
         <v>1</v>
       </c>
       <c r="AA23" s="7">
-        <v>4</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>5</v>
       </c>
       <c r="AC23" s="7">
         <v>1</v>
@@ -4726,40 +4707,36 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
-        <v>23</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="34">
-        <v>5</v>
-      </c>
-      <c r="E24" s="34">
+        <v>17</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="46">
         <v>4</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34">
-        <v>3</v>
-      </c>
-      <c r="H24" s="34">
-        <v>3</v>
-      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46">
+        <v>2</v>
+      </c>
+      <c r="H24" s="46"/>
       <c r="I24" s="33" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J24" s="33">
         <v>4</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>76</v>
-      </c>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="36"/>
       <c r="N24" s="10">
         <v>1</v>
       </c>
@@ -4769,13 +4746,13 @@
       <c r="P24" s="9">
         <v>1</v>
       </c>
-      <c r="Q24" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="R24" s="46">
-        <v>1</v>
-      </c>
-      <c r="S24" s="48"/>
+      <c r="Q24" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="R24" s="45">
+        <v>1</v>
+      </c>
+      <c r="S24" s="49"/>
       <c r="T24" s="9">
         <v>1</v>
       </c>
@@ -4797,8 +4774,8 @@
       <c r="Z24" s="7">
         <v>1</v>
       </c>
-      <c r="AA24" s="7">
-        <v>5</v>
+      <c r="AA24" s="6">
+        <v>4</v>
       </c>
       <c r="AB24" s="7">
         <v>4</v>
@@ -4845,34 +4822,34 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="34">
+        <v>106</v>
+      </c>
+      <c r="D25" s="45">
         <v>5</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34">
-        <v>3</v>
-      </c>
-      <c r="G25" s="34">
-        <v>3</v>
-      </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="34">
+      <c r="E25" s="45">
         <v>4</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34" t="s">
-        <v>62</v>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45">
+        <v>2</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="45">
+        <v>4</v>
+      </c>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="M25" s="36"/>
       <c r="N25" s="10">
@@ -4884,13 +4861,13 @@
       <c r="P25" s="9">
         <v>1</v>
       </c>
-      <c r="Q25" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="R25" s="46">
-        <v>1</v>
-      </c>
-      <c r="S25" s="50"/>
+      <c r="Q25" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="R25" s="45">
+        <v>1</v>
+      </c>
+      <c r="S25" s="49"/>
       <c r="T25" s="9">
         <v>1</v>
       </c>
@@ -4912,7 +4889,7 @@
       <c r="Z25" s="7">
         <v>1</v>
       </c>
-      <c r="AA25" s="7">
+      <c r="AA25" s="6">
         <v>4</v>
       </c>
       <c r="AB25" s="6">
@@ -4960,34 +4937,32 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="D26" s="46">
+        <v>5</v>
+      </c>
       <c r="E26" s="34">
+        <v>3</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="45">
         <v>4</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34">
-        <v>3</v>
-      </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="34">
-        <v>4</v>
-      </c>
-      <c r="K26" s="34">
-        <v>5</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>62</v>
+      <c r="K26" s="34"/>
+      <c r="L26" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="M26" s="36"/>
       <c r="N26" s="10">
@@ -4999,13 +4974,13 @@
       <c r="P26" s="9">
         <v>1</v>
       </c>
-      <c r="Q26" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="R26" s="46">
-        <v>1</v>
-      </c>
-      <c r="S26" s="48"/>
+      <c r="Q26" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="R26" s="45">
+        <v>1</v>
+      </c>
+      <c r="S26" s="49"/>
       <c r="T26" s="9">
         <v>1</v>
       </c>
@@ -5027,11 +5002,11 @@
       <c r="Z26" s="7">
         <v>1</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AA26" s="6">
         <v>4</v>
       </c>
-      <c r="AB26" s="7" t="s">
-        <v>7</v>
+      <c r="AB26" s="6">
+        <v>4</v>
       </c>
       <c r="AC26" s="7">
         <v>1</v>
@@ -5075,38 +5050,34 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="4">
-        <v>26</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>108</v>
       </c>
       <c r="D27" s="34">
         <v>5</v>
       </c>
       <c r="E27" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="34">
         <v>3</v>
       </c>
-      <c r="G27" s="34">
-        <v>3</v>
-      </c>
+      <c r="G27" s="34"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="34">
-        <v>4</v>
-      </c>
-      <c r="K27" s="34">
+      <c r="I27" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="45">
         <v>5</v>
       </c>
-      <c r="L27" s="37" t="s">
-        <v>79</v>
+      <c r="K27" s="34"/>
+      <c r="L27" s="46">
+        <v>112</v>
       </c>
       <c r="M27" s="36"/>
       <c r="N27" s="10">
@@ -5118,13 +5089,13 @@
       <c r="P27" s="9">
         <v>1</v>
       </c>
-      <c r="Q27" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="R27" s="46">
-        <v>1</v>
-      </c>
-      <c r="S27" s="48"/>
+      <c r="Q27" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="R27" s="45">
+        <v>1</v>
+      </c>
+      <c r="S27" s="49"/>
       <c r="T27" s="9">
         <v>1</v>
       </c>
@@ -5149,8 +5120,8 @@
       <c r="AA27" s="7">
         <v>4</v>
       </c>
-      <c r="AB27" s="7" t="s">
-        <v>6</v>
+      <c r="AB27" s="7">
+        <v>4</v>
       </c>
       <c r="AC27" s="7">
         <v>1</v>
@@ -5194,36 +5165,34 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="4">
-        <v>27</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="34">
+        <v>5</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="34">
+        <v>3</v>
+      </c>
       <c r="G28" s="34">
         <v>3</v>
       </c>
-      <c r="H28" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>81</v>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="J28" s="34">
         <v>4</v>
       </c>
       <c r="K28" s="34"/>
-      <c r="L28" s="33" t="s">
-        <v>83</v>
+      <c r="L28" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="M28" s="36"/>
       <c r="N28" s="10">
@@ -5236,12 +5205,12 @@
         <v>1</v>
       </c>
       <c r="Q28" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="R28" s="46">
-        <v>1</v>
-      </c>
-      <c r="S28" s="50"/>
+        <v>128</v>
+      </c>
+      <c r="R28" s="45">
+        <v>1</v>
+      </c>
+      <c r="S28" s="49"/>
       <c r="T28" s="9">
         <v>1</v>
       </c>
@@ -5264,10 +5233,10 @@
         <v>1</v>
       </c>
       <c r="AA28" s="7">
-        <v>5</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>4</v>
       </c>
       <c r="AC28" s="7">
         <v>1</v>
@@ -5311,34 +5280,36 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="4">
-        <v>28</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="34">
-        <v>5</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34">
+        <v>27</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34">
         <v>3</v>
       </c>
-      <c r="G29" s="34">
-        <v>4</v>
-      </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="I29" s="33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J29" s="34">
         <v>4</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M29" s="36"/>
       <c r="N29" s="10">
@@ -5350,13 +5321,13 @@
       <c r="P29" s="9">
         <v>1</v>
       </c>
-      <c r="Q29" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="R29" s="46">
-        <v>1</v>
-      </c>
-      <c r="S29" s="51"/>
+      <c r="Q29" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="R29" s="45">
+        <v>1</v>
+      </c>
+      <c r="S29" s="49"/>
       <c r="T29" s="9">
         <v>1</v>
       </c>
@@ -5382,7 +5353,7 @@
         <v>5</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC29" s="7">
         <v>1</v>
@@ -5426,38 +5397,34 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="4">
-        <v>29</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>118</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>114</v>
       </c>
       <c r="D30" s="34">
         <v>5</v>
       </c>
-      <c r="E30" s="34">
-        <v>4</v>
-      </c>
-      <c r="F30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34">
+        <v>3</v>
+      </c>
       <c r="G30" s="34">
         <v>4</v>
       </c>
-      <c r="H30" s="34">
-        <v>3</v>
-      </c>
+      <c r="H30" s="34"/>
       <c r="I30" s="33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J30" s="34">
         <v>4</v>
       </c>
-      <c r="K30" s="34">
-        <v>5</v>
-      </c>
+      <c r="K30" s="34"/>
       <c r="L30" s="33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M30" s="36"/>
       <c r="N30" s="10">
@@ -5469,13 +5436,13 @@
       <c r="P30" s="9">
         <v>1</v>
       </c>
-      <c r="Q30" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="R30" s="46">
-        <v>1</v>
-      </c>
-      <c r="S30" s="51"/>
+      <c r="Q30" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" s="45">
+        <v>1</v>
+      </c>
+      <c r="S30" s="50"/>
       <c r="T30" s="9">
         <v>1</v>
       </c>
@@ -5498,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="AA30" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB30" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="AC30" s="7">
         <v>1</v>
@@ -5545,34 +5512,34 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="18">
         <v>30</v>
       </c>
-      <c r="C31" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="39">
+      <c r="C31" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="38">
         <v>5</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="39">
+      <c r="E31" s="38"/>
+      <c r="F31" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="38">
         <v>3</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39">
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38">
         <v>4</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="M31" s="41"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="40"/>
       <c r="N31" s="10">
         <v>1</v>
       </c>
@@ -5582,13 +5549,13 @@
       <c r="P31" s="9">
         <v>1</v>
       </c>
-      <c r="Q31" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="R31" s="46">
-        <v>1</v>
-      </c>
-      <c r="S31" s="53"/>
+      <c r="Q31" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="R31" s="45">
+        <v>1</v>
+      </c>
+      <c r="S31" s="52"/>
       <c r="T31" s="9">
         <v>1</v>
       </c>
@@ -5658,7 +5625,7 @@
       <c r="AR31" s="12"/>
       <c r="AS31" s="12"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="4"/>
@@ -5705,7 +5672,7 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="4"/>
@@ -5752,7 +5719,7 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="4"/>
@@ -5799,7 +5766,7 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="4"/>
@@ -5846,7 +5813,7 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="4"/>
@@ -5893,7 +5860,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="3"/>
     </row>
-    <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="4"/>
@@ -5940,7 +5907,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="3"/>
     </row>
-    <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="4"/>
@@ -5987,7 +5954,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="3"/>
     </row>
-    <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="4"/>
@@ -6034,7 +6001,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="3"/>
     </row>
-    <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="4"/>
@@ -6081,7 +6048,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="3"/>
     </row>
-    <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="4"/>
@@ -6128,7 +6095,7 @@
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
     </row>
-    <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4"/>
@@ -6175,7 +6142,7 @@
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
     </row>
-    <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4"/>
@@ -6222,7 +6189,7 @@
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
     </row>
-    <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="4"/>
@@ -6269,7 +6236,7 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
     </row>
-    <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="4"/>
@@ -6316,7 +6283,7 @@
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
     </row>
-    <row r="46" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="4"/>
@@ -6363,7 +6330,7 @@
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
     </row>
-    <row r="47" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="4"/>
@@ -6410,7 +6377,7 @@
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
     </row>
-    <row r="48" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="4"/>
@@ -6457,7 +6424,7 @@
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
     </row>
-    <row r="49" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="21"/>
@@ -6504,7 +6471,7 @@
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
     </row>
-    <row r="50" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="21"/>
@@ -6551,7 +6518,7 @@
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
     </row>
-    <row r="51" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="21"/>
@@ -6598,7 +6565,7 @@
       <c r="AR51" s="3"/>
       <c r="AS51" s="3"/>
     </row>
-    <row r="52" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="21"/>
@@ -6645,7 +6612,7 @@
       <c r="AR52" s="3"/>
       <c r="AS52" s="3"/>
     </row>
-    <row r="53" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="21"/>
@@ -6692,7 +6659,7 @@
       <c r="AR53" s="3"/>
       <c r="AS53" s="3"/>
     </row>
-    <row r="54" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="21"/>
@@ -6739,7 +6706,7 @@
       <c r="AR54" s="3"/>
       <c r="AS54" s="3"/>
     </row>
-    <row r="55" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="21"/>
@@ -6786,7 +6753,7 @@
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
     </row>
-    <row r="56" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="21"/>
@@ -6833,7 +6800,7 @@
       <c r="AR56" s="3"/>
       <c r="AS56" s="3"/>
     </row>
-    <row r="57" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="21"/>
@@ -6880,7 +6847,7 @@
       <c r="AR57" s="3"/>
       <c r="AS57" s="3"/>
     </row>
-    <row r="58" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="21"/>
@@ -6927,7 +6894,7 @@
       <c r="AR58" s="3"/>
       <c r="AS58" s="3"/>
     </row>
-    <row r="59" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="21"/>
@@ -6974,7 +6941,7 @@
       <c r="AR59" s="3"/>
       <c r="AS59" s="3"/>
     </row>
-    <row r="60" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="21"/>
@@ -7021,7 +6988,7 @@
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
     </row>
-    <row r="61" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="21"/>
@@ -7068,7 +7035,7 @@
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
     </row>
-    <row r="62" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="21"/>
@@ -7115,7 +7082,7 @@
       <c r="AR62" s="3"/>
       <c r="AS62" s="3"/>
     </row>
-    <row r="63" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="21"/>
@@ -7162,7 +7129,7 @@
       <c r="AR63" s="3"/>
       <c r="AS63" s="3"/>
     </row>
-    <row r="64" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="21"/>
@@ -7209,7 +7176,7 @@
       <c r="AR64" s="3"/>
       <c r="AS64" s="3"/>
     </row>
-    <row r="65" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="21"/>
@@ -7256,7 +7223,7 @@
       <c r="AR65" s="3"/>
       <c r="AS65" s="3"/>
     </row>
-    <row r="66" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="21"/>
@@ -7303,7 +7270,7 @@
       <c r="AR66" s="3"/>
       <c r="AS66" s="3"/>
     </row>
-    <row r="67" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="21"/>
@@ -7350,7 +7317,7 @@
       <c r="AR67" s="3"/>
       <c r="AS67" s="3"/>
     </row>
-    <row r="68" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="21"/>
@@ -7397,7 +7364,7 @@
       <c r="AR68" s="3"/>
       <c r="AS68" s="3"/>
     </row>
-    <row r="69" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="21"/>
@@ -7444,7 +7411,7 @@
       <c r="AR69" s="3"/>
       <c r="AS69" s="3"/>
     </row>
-    <row r="70" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="21"/>
@@ -7491,7 +7458,7 @@
       <c r="AR70" s="3"/>
       <c r="AS70" s="3"/>
     </row>
-    <row r="71" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="21"/>
@@ -7538,7 +7505,7 @@
       <c r="AR71" s="3"/>
       <c r="AS71" s="3"/>
     </row>
-    <row r="72" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="21"/>
@@ -7585,7 +7552,7 @@
       <c r="AR72" s="3"/>
       <c r="AS72" s="3"/>
     </row>
-    <row r="73" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="21"/>
@@ -7632,7 +7599,7 @@
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
     </row>
-    <row r="74" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="21"/>
@@ -7679,7 +7646,7 @@
       <c r="AR74" s="3"/>
       <c r="AS74" s="3"/>
     </row>
-    <row r="75" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="21"/>
@@ -7726,7 +7693,7 @@
       <c r="AR75" s="3"/>
       <c r="AS75" s="3"/>
     </row>
-    <row r="76" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="21"/>
@@ -7773,7 +7740,7 @@
       <c r="AR76" s="3"/>
       <c r="AS76" s="3"/>
     </row>
-    <row r="77" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="21"/>
@@ -7820,7 +7787,7 @@
       <c r="AR77" s="3"/>
       <c r="AS77" s="3"/>
     </row>
-    <row r="78" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="21"/>
@@ -7867,7 +7834,7 @@
       <c r="AR78" s="3"/>
       <c r="AS78" s="3"/>
     </row>
-    <row r="79" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="21"/>
@@ -7914,7 +7881,7 @@
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
     </row>
-    <row r="80" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="21"/>
@@ -7961,7 +7928,7 @@
       <c r="AR80" s="3"/>
       <c r="AS80" s="3"/>
     </row>
-    <row r="81" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="21"/>
@@ -8008,7 +7975,7 @@
       <c r="AR81" s="3"/>
       <c r="AS81" s="3"/>
     </row>
-    <row r="82" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="21"/>
@@ -8055,7 +8022,7 @@
       <c r="AR82" s="3"/>
       <c r="AS82" s="3"/>
     </row>
-    <row r="83" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="21"/>
@@ -8102,7 +8069,7 @@
       <c r="AR83" s="3"/>
       <c r="AS83" s="3"/>
     </row>
-    <row r="84" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="21"/>
@@ -8149,7 +8116,7 @@
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
     </row>
-    <row r="85" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="21"/>
@@ -8196,7 +8163,7 @@
       <c r="AR85" s="3"/>
       <c r="AS85" s="3"/>
     </row>
-    <row r="86" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="21"/>
@@ -8243,7 +8210,7 @@
       <c r="AR86" s="3"/>
       <c r="AS86" s="3"/>
     </row>
-    <row r="87" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="21"/>
@@ -8290,7 +8257,7 @@
       <c r="AR87" s="3"/>
       <c r="AS87" s="3"/>
     </row>
-    <row r="88" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="21"/>
@@ -8337,7 +8304,7 @@
       <c r="AR88" s="3"/>
       <c r="AS88" s="3"/>
     </row>
-    <row r="89" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="21"/>
@@ -8384,7 +8351,7 @@
       <c r="AR89" s="3"/>
       <c r="AS89" s="3"/>
     </row>
-    <row r="90" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="21"/>
@@ -8431,7 +8398,7 @@
       <c r="AR90" s="3"/>
       <c r="AS90" s="3"/>
     </row>
-    <row r="91" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="21"/>
@@ -8478,7 +8445,7 @@
       <c r="AR91" s="3"/>
       <c r="AS91" s="3"/>
     </row>
-    <row r="92" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="21"/>
@@ -8525,7 +8492,7 @@
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
     </row>
-    <row r="93" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="21"/>
@@ -8572,7 +8539,7 @@
       <c r="AR93" s="3"/>
       <c r="AS93" s="3"/>
     </row>
-    <row r="94" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="21"/>
@@ -8619,7 +8586,7 @@
       <c r="AR94" s="3"/>
       <c r="AS94" s="3"/>
     </row>
-    <row r="95" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="21"/>
@@ -8666,7 +8633,7 @@
       <c r="AR95" s="3"/>
       <c r="AS95" s="3"/>
     </row>
-    <row r="96" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="21"/>
@@ -8713,7 +8680,7 @@
       <c r="AR96" s="3"/>
       <c r="AS96" s="3"/>
     </row>
-    <row r="97" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="21"/>
@@ -8760,7 +8727,7 @@
       <c r="AR97" s="3"/>
       <c r="AS97" s="3"/>
     </row>
-    <row r="98" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="21"/>
@@ -8807,7 +8774,7 @@
       <c r="AR98" s="3"/>
       <c r="AS98" s="3"/>
     </row>
-    <row r="99" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="21"/>
@@ -8854,7 +8821,7 @@
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
     </row>
-    <row r="100" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="21"/>
@@ -8901,7 +8868,7 @@
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
     </row>
-    <row r="101" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="21"/>
@@ -8948,7 +8915,7 @@
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
     </row>
-    <row r="102" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="21"/>
@@ -8995,7 +8962,7 @@
       <c r="AR102" s="3"/>
       <c r="AS102" s="3"/>
     </row>
-    <row r="103" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="21"/>
@@ -9042,7 +9009,7 @@
       <c r="AR103" s="3"/>
       <c r="AS103" s="3"/>
     </row>
-    <row r="104" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="21"/>
@@ -9089,7 +9056,7 @@
       <c r="AR104" s="3"/>
       <c r="AS104" s="3"/>
     </row>
-    <row r="105" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="21"/>
@@ -9136,7 +9103,7 @@
       <c r="AR105" s="3"/>
       <c r="AS105" s="3"/>
     </row>
-    <row r="106" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="21"/>
@@ -9183,7 +9150,7 @@
       <c r="AR106" s="3"/>
       <c r="AS106" s="3"/>
     </row>
-    <row r="107" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="21"/>
@@ -9230,7 +9197,7 @@
       <c r="AR107" s="3"/>
       <c r="AS107" s="3"/>
     </row>
-    <row r="108" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="21"/>
@@ -9277,7 +9244,7 @@
       <c r="AR108" s="3"/>
       <c r="AS108" s="3"/>
     </row>
-    <row r="109" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="21"/>
@@ -9324,7 +9291,7 @@
       <c r="AR109" s="3"/>
       <c r="AS109" s="3"/>
     </row>
-    <row r="110" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="21"/>
@@ -9371,7 +9338,7 @@
       <c r="AR110" s="3"/>
       <c r="AS110" s="3"/>
     </row>
-    <row r="111" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="21"/>
@@ -9418,7 +9385,7 @@
       <c r="AR111" s="3"/>
       <c r="AS111" s="3"/>
     </row>
-    <row r="112" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="21"/>
@@ -9465,7 +9432,7 @@
       <c r="AR112" s="3"/>
       <c r="AS112" s="3"/>
     </row>
-    <row r="113" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="21"/>
@@ -9512,7 +9479,7 @@
       <c r="AR113" s="3"/>
       <c r="AS113" s="3"/>
     </row>
-    <row r="114" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="21"/>
@@ -9559,7 +9526,7 @@
       <c r="AR114" s="3"/>
       <c r="AS114" s="3"/>
     </row>
-    <row r="115" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="21"/>
@@ -9606,7 +9573,7 @@
       <c r="AR115" s="3"/>
       <c r="AS115" s="3"/>
     </row>
-    <row r="116" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="21"/>
@@ -9653,7 +9620,7 @@
       <c r="AR116" s="3"/>
       <c r="AS116" s="3"/>
     </row>
-    <row r="117" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="21"/>
@@ -9700,7 +9667,7 @@
       <c r="AR117" s="3"/>
       <c r="AS117" s="3"/>
     </row>
-    <row r="118" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="21"/>
@@ -9747,7 +9714,7 @@
       <c r="AR118" s="3"/>
       <c r="AS118" s="3"/>
     </row>
-    <row r="119" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="21"/>
@@ -9794,7 +9761,7 @@
       <c r="AR119" s="3"/>
       <c r="AS119" s="3"/>
     </row>
-    <row r="120" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="21"/>
@@ -9841,7 +9808,7 @@
       <c r="AR120" s="3"/>
       <c r="AS120" s="3"/>
     </row>
-    <row r="121" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="21"/>
@@ -9888,7 +9855,7 @@
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
     </row>
-    <row r="122" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="21"/>
@@ -9935,7 +9902,7 @@
       <c r="AR122" s="3"/>
       <c r="AS122" s="3"/>
     </row>
-    <row r="123" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="21"/>
@@ -9982,7 +9949,7 @@
       <c r="AR123" s="3"/>
       <c r="AS123" s="3"/>
     </row>
-    <row r="124" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="21"/>
@@ -10029,7 +9996,7 @@
       <c r="AR124" s="3"/>
       <c r="AS124" s="3"/>
     </row>
-    <row r="125" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="21"/>
@@ -10076,7 +10043,7 @@
       <c r="AR125" s="3"/>
       <c r="AS125" s="3"/>
     </row>
-    <row r="126" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="21"/>
@@ -10123,7 +10090,7 @@
       <c r="AR126" s="3"/>
       <c r="AS126" s="3"/>
     </row>
-    <row r="127" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="21"/>
@@ -10170,7 +10137,7 @@
       <c r="AR127" s="3"/>
       <c r="AS127" s="3"/>
     </row>
-    <row r="128" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="21"/>
@@ -10217,7 +10184,7 @@
       <c r="AR128" s="3"/>
       <c r="AS128" s="3"/>
     </row>
-    <row r="129" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="21"/>
@@ -10264,7 +10231,7 @@
       <c r="AR129" s="3"/>
       <c r="AS129" s="3"/>
     </row>
-    <row r="130" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="21"/>
@@ -10311,7 +10278,7 @@
       <c r="AR130" s="3"/>
       <c r="AS130" s="3"/>
     </row>
-    <row r="131" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="21"/>
@@ -10358,7 +10325,7 @@
       <c r="AR131" s="3"/>
       <c r="AS131" s="3"/>
     </row>
-    <row r="132" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="21"/>
@@ -10405,7 +10372,7 @@
       <c r="AR132" s="3"/>
       <c r="AS132" s="3"/>
     </row>
-    <row r="133" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="21"/>
@@ -10452,7 +10419,7 @@
       <c r="AR133" s="3"/>
       <c r="AS133" s="3"/>
     </row>
-    <row r="134" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="21"/>
@@ -10499,7 +10466,7 @@
       <c r="AR134" s="3"/>
       <c r="AS134" s="3"/>
     </row>
-    <row r="135" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="21"/>
@@ -10546,7 +10513,7 @@
       <c r="AR135" s="3"/>
       <c r="AS135" s="3"/>
     </row>
-    <row r="136" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="21"/>
@@ -10593,7 +10560,7 @@
       <c r="AR136" s="3"/>
       <c r="AS136" s="3"/>
     </row>
-    <row r="137" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="21"/>
@@ -10640,7 +10607,7 @@
       <c r="AR137" s="3"/>
       <c r="AS137" s="3"/>
     </row>
-    <row r="138" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="21"/>
@@ -10687,7 +10654,7 @@
       <c r="AR138" s="3"/>
       <c r="AS138" s="3"/>
     </row>
-    <row r="139" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="21"/>
@@ -10734,7 +10701,7 @@
       <c r="AR139" s="3"/>
       <c r="AS139" s="3"/>
     </row>
-    <row r="140" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="21"/>
@@ -10781,7 +10748,7 @@
       <c r="AR140" s="3"/>
       <c r="AS140" s="3"/>
     </row>
-    <row r="141" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="21"/>
@@ -10828,7 +10795,7 @@
       <c r="AR141" s="3"/>
       <c r="AS141" s="3"/>
     </row>
-    <row r="142" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="21"/>
@@ -10875,7 +10842,7 @@
       <c r="AR142" s="3"/>
       <c r="AS142" s="3"/>
     </row>
-    <row r="143" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="21"/>
@@ -10922,7 +10889,7 @@
       <c r="AR143" s="3"/>
       <c r="AS143" s="3"/>
     </row>
-    <row r="144" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="21"/>
@@ -10969,7 +10936,7 @@
       <c r="AR144" s="3"/>
       <c r="AS144" s="3"/>
     </row>
-    <row r="145" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="21"/>
@@ -11016,7 +10983,7 @@
       <c r="AR145" s="3"/>
       <c r="AS145" s="3"/>
     </row>
-    <row r="146" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="21"/>
@@ -11063,7 +11030,7 @@
       <c r="AR146" s="3"/>
       <c r="AS146" s="3"/>
     </row>
-    <row r="147" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="21"/>
@@ -11110,7 +11077,7 @@
       <c r="AR147" s="3"/>
       <c r="AS147" s="3"/>
     </row>
-    <row r="148" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="21"/>
@@ -11157,7 +11124,7 @@
       <c r="AR148" s="3"/>
       <c r="AS148" s="3"/>
     </row>
-    <row r="149" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="21"/>
@@ -11204,7 +11171,7 @@
       <c r="AR149" s="3"/>
       <c r="AS149" s="3"/>
     </row>
-    <row r="150" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="21"/>
@@ -11251,7 +11218,7 @@
       <c r="AR150" s="3"/>
       <c r="AS150" s="3"/>
     </row>
-    <row r="151" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="21"/>
@@ -11298,7 +11265,7 @@
       <c r="AR151" s="3"/>
       <c r="AS151" s="3"/>
     </row>
-    <row r="152" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="21"/>
@@ -11345,7 +11312,7 @@
       <c r="AR152" s="3"/>
       <c r="AS152" s="3"/>
     </row>
-    <row r="153" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="21"/>
@@ -11392,7 +11359,7 @@
       <c r="AR153" s="3"/>
       <c r="AS153" s="3"/>
     </row>
-    <row r="154" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="21"/>
@@ -11439,7 +11406,7 @@
       <c r="AR154" s="3"/>
       <c r="AS154" s="3"/>
     </row>
-    <row r="155" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="21"/>
@@ -11486,7 +11453,7 @@
       <c r="AR155" s="3"/>
       <c r="AS155" s="3"/>
     </row>
-    <row r="156" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="21"/>
@@ -11533,7 +11500,7 @@
       <c r="AR156" s="3"/>
       <c r="AS156" s="3"/>
     </row>
-    <row r="157" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="21"/>
@@ -11580,7 +11547,7 @@
       <c r="AR157" s="3"/>
       <c r="AS157" s="3"/>
     </row>
-    <row r="158" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="21"/>
@@ -11627,7 +11594,7 @@
       <c r="AR158" s="3"/>
       <c r="AS158" s="3"/>
     </row>
-    <row r="159" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="21"/>
@@ -11674,7 +11641,7 @@
       <c r="AR159" s="3"/>
       <c r="AS159" s="3"/>
     </row>
-    <row r="160" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="21"/>
@@ -11721,7 +11688,7 @@
       <c r="AR160" s="3"/>
       <c r="AS160" s="3"/>
     </row>
-    <row r="161" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="21"/>
@@ -11768,7 +11735,7 @@
       <c r="AR161" s="3"/>
       <c r="AS161" s="3"/>
     </row>
-    <row r="162" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="21"/>
@@ -11815,7 +11782,7 @@
       <c r="AR162" s="3"/>
       <c r="AS162" s="3"/>
     </row>
-    <row r="163" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="21"/>
@@ -11862,7 +11829,7 @@
       <c r="AR163" s="3"/>
       <c r="AS163" s="3"/>
     </row>
-    <row r="164" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="21"/>
@@ -11909,7 +11876,7 @@
       <c r="AR164" s="3"/>
       <c r="AS164" s="3"/>
     </row>
-    <row r="165" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="21"/>
@@ -11956,7 +11923,7 @@
       <c r="AR165" s="3"/>
       <c r="AS165" s="3"/>
     </row>
-    <row r="166" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="21"/>
@@ -12003,7 +11970,7 @@
       <c r="AR166" s="3"/>
       <c r="AS166" s="3"/>
     </row>
-    <row r="167" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="21"/>
@@ -12050,7 +12017,7 @@
       <c r="AR167" s="3"/>
       <c r="AS167" s="3"/>
     </row>
-    <row r="168" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="21"/>
@@ -12097,7 +12064,7 @@
       <c r="AR168" s="3"/>
       <c r="AS168" s="3"/>
     </row>
-    <row r="169" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="21"/>
@@ -12144,7 +12111,7 @@
       <c r="AR169" s="3"/>
       <c r="AS169" s="3"/>
     </row>
-    <row r="170" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="21"/>
@@ -12191,7 +12158,7 @@
       <c r="AR170" s="3"/>
       <c r="AS170" s="3"/>
     </row>
-    <row r="171" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="21"/>
@@ -12238,7 +12205,7 @@
       <c r="AR171" s="3"/>
       <c r="AS171" s="3"/>
     </row>
-    <row r="172" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="21"/>
@@ -12285,7 +12252,7 @@
       <c r="AR172" s="3"/>
       <c r="AS172" s="3"/>
     </row>
-    <row r="173" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="21"/>
@@ -12332,7 +12299,7 @@
       <c r="AR173" s="3"/>
       <c r="AS173" s="3"/>
     </row>
-    <row r="174" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="21"/>
@@ -12379,7 +12346,7 @@
       <c r="AR174" s="3"/>
       <c r="AS174" s="3"/>
     </row>
-    <row r="175" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="21"/>
@@ -12426,7 +12393,7 @@
       <c r="AR175" s="3"/>
       <c r="AS175" s="3"/>
     </row>
-    <row r="176" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="21"/>
@@ -12473,7 +12440,7 @@
       <c r="AR176" s="3"/>
       <c r="AS176" s="3"/>
     </row>
-    <row r="177" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="21"/>
@@ -12520,7 +12487,7 @@
       <c r="AR177" s="3"/>
       <c r="AS177" s="3"/>
     </row>
-    <row r="178" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="21"/>
@@ -12567,7 +12534,7 @@
       <c r="AR178" s="3"/>
       <c r="AS178" s="3"/>
     </row>
-    <row r="179" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="21"/>
@@ -12614,7 +12581,7 @@
       <c r="AR179" s="3"/>
       <c r="AS179" s="3"/>
     </row>
-    <row r="180" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="21"/>
@@ -12661,7 +12628,7 @@
       <c r="AR180" s="3"/>
       <c r="AS180" s="3"/>
     </row>
-    <row r="181" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="21"/>
@@ -12708,7 +12675,7 @@
       <c r="AR181" s="3"/>
       <c r="AS181" s="3"/>
     </row>
-    <row r="182" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="21"/>
@@ -12755,7 +12722,7 @@
       <c r="AR182" s="3"/>
       <c r="AS182" s="3"/>
     </row>
-    <row r="183" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="21"/>
@@ -12802,7 +12769,7 @@
       <c r="AR183" s="3"/>
       <c r="AS183" s="3"/>
     </row>
-    <row r="184" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="21"/>
@@ -12849,7 +12816,7 @@
       <c r="AR184" s="3"/>
       <c r="AS184" s="3"/>
     </row>
-    <row r="185" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="21"/>
@@ -12896,7 +12863,7 @@
       <c r="AR185" s="3"/>
       <c r="AS185" s="3"/>
     </row>
-    <row r="186" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="21"/>
@@ -12944,6 +12911,10 @@
       <c r="AS186" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K186" xr:uid="{FED644B1-01CB-4874-8AF9-096EA35C3639}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:AO188">
+    <sortCondition descending="1" ref="M1:M188"/>
+  </sortState>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/box表.xlsx
+++ b/box表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengjk\Desktop\pcrbattle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\pcrbattle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4033BEE-82E8-4B3A-99E3-8DF72A70ACCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C302E78-2028-428B-B957-480A4056ECE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <r>
       <rPr>
@@ -1315,6 +1315,26 @@
   </si>
   <si>
     <t>妈</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>子龙</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃铛</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1548,9 +1568,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1669,6 +1686,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1974,134 +1994,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS186"/>
+  <dimension ref="A1:AT186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" customWidth="1"/>
-    <col min="7" max="8" width="10.19921875" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="12.19921875" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" customWidth="1"/>
-    <col min="17" max="17" width="18.8984375" customWidth="1"/>
-    <col min="18" max="18" width="15.59765625" customWidth="1"/>
-    <col min="19" max="19" width="12.8984375" customWidth="1"/>
-    <col min="20" max="20" width="15.8984375" customWidth="1"/>
-    <col min="21" max="21" width="8.09765625" customWidth="1"/>
-    <col min="22" max="26" width="10.3984375" customWidth="1"/>
+    <col min="15" max="15" width="16.375" customWidth="1"/>
+    <col min="16" max="16" width="17.375" customWidth="1"/>
+    <col min="17" max="17" width="18.875" customWidth="1"/>
+    <col min="18" max="18" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
+    <col min="20" max="20" width="15.875" customWidth="1"/>
+    <col min="21" max="21" width="8.125" customWidth="1"/>
+    <col min="22" max="26" width="10.375" customWidth="1"/>
     <col min="27" max="27" width="19.5" customWidth="1"/>
     <col min="28" max="28" width="16" customWidth="1"/>
-    <col min="29" max="30" width="10.3984375" customWidth="1"/>
-    <col min="31" max="31" width="21.69921875" customWidth="1"/>
-    <col min="32" max="36" width="10.3984375" customWidth="1"/>
+    <col min="29" max="30" width="10.375" customWidth="1"/>
+    <col min="31" max="31" width="21.75" customWidth="1"/>
+    <col min="32" max="36" width="10.375" customWidth="1"/>
     <col min="37" max="37" width="9" customWidth="1"/>
-    <col min="38" max="38" width="10.3984375" customWidth="1"/>
-    <col min="39" max="39" width="19.3984375" customWidth="1"/>
-    <col min="40" max="40" width="19.59765625" customWidth="1"/>
-    <col min="41" max="45" width="12.8984375" customWidth="1"/>
+    <col min="38" max="38" width="10.375" customWidth="1"/>
+    <col min="39" max="39" width="19.375" customWidth="1"/>
+    <col min="40" max="40" width="19.625" customWidth="1"/>
+    <col min="41" max="45" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="28" t="s">
         <v>25</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>29</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AE1" s="24" t="s">
         <v>34</v>
       </c>
       <c r="AF1" s="11" t="s">
@@ -2134,47 +2154,58 @@
       <c r="AO1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT1" s="52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>13</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <v>4</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>3</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="44">
         <v>3</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="44">
         <v>3</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="44">
         <v>5</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="48">
+      <c r="J2" s="47">
         <v>4</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="44">
         <v>5</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="35">
         <v>5</v>
       </c>
       <c r="N2" s="10">
@@ -2186,20 +2217,20 @@
       <c r="P2" s="9">
         <v>1</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="45">
-        <v>1</v>
-      </c>
-      <c r="S2" s="49"/>
+      <c r="R2" s="44">
+        <v>1</v>
+      </c>
+      <c r="S2" s="48"/>
       <c r="T2" s="9">
         <v>1</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="12">
         <v>1</v>
       </c>
       <c r="W2" s="7">
@@ -2217,7 +2248,7 @@
       <c r="AA2" s="11">
         <v>4</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AB2" s="15">
         <v>4</v>
       </c>
       <c r="AC2" s="7">
@@ -2257,37 +2288,48 @@
       <c r="AO2" s="1">
         <v>1</v>
       </c>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>19</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>5</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45">
         <v>3</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45">
         <v>3</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="45">
         <v>3</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="35">
+      <c r="K3" s="33"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="34">
         <v>4</v>
       </c>
       <c r="N3" s="10">
@@ -2299,20 +2341,20 @@
       <c r="P3" s="9">
         <v>1</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="45">
-        <v>1</v>
-      </c>
-      <c r="S3" s="49"/>
+      <c r="R3" s="44">
+        <v>1</v>
+      </c>
+      <c r="S3" s="48"/>
       <c r="T3" s="9">
         <v>1</v>
       </c>
       <c r="U3" s="1">
         <v>1</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="12">
         <v>1</v>
       </c>
       <c r="W3" s="7">
@@ -2327,7 +2369,7 @@
       <c r="Z3" s="7">
         <v>1</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AA3" s="13">
         <v>4</v>
       </c>
       <c r="AB3" s="7">
@@ -2370,39 +2412,50 @@
       <c r="AO3" s="1">
         <v>1</v>
       </c>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>7</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="32">
         <v>4</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47">
         <v>4</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="44">
         <v>4</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="34">
         <v>3</v>
       </c>
       <c r="N4" s="10">
@@ -2414,20 +2467,20 @@
       <c r="P4" s="9">
         <v>1</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="R4" s="45">
-        <v>1</v>
-      </c>
-      <c r="S4" s="47"/>
+      <c r="R4" s="44">
+        <v>1</v>
+      </c>
+      <c r="S4" s="46"/>
       <c r="T4" s="9">
         <v>1</v>
       </c>
       <c r="U4" s="1">
         <v>1</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="12">
         <v>1</v>
       </c>
       <c r="W4" s="7">
@@ -2485,43 +2538,54 @@
       <c r="AO4" s="1">
         <v>1</v>
       </c>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>23</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>5</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>4</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46">
+      <c r="F5" s="45"/>
+      <c r="G5" s="45">
         <v>3</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>3</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="44">
         <v>4</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46" t="s">
+      <c r="K5" s="45"/>
+      <c r="L5" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="34">
         <v>3</v>
       </c>
       <c r="N5" s="10">
@@ -2533,20 +2597,20 @@
       <c r="P5" s="9">
         <v>1</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="R5" s="45">
-        <v>1</v>
-      </c>
-      <c r="S5" s="47"/>
+      <c r="R5" s="44">
+        <v>1</v>
+      </c>
+      <c r="S5" s="46"/>
       <c r="T5" s="9">
         <v>1</v>
       </c>
       <c r="U5" s="1">
         <v>1</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="12">
         <v>1</v>
       </c>
       <c r="W5" s="7">
@@ -2561,7 +2625,7 @@
       <c r="Z5" s="7">
         <v>1</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AA5" s="13">
         <v>5</v>
       </c>
       <c r="AB5" s="7">
@@ -2604,45 +2668,56 @@
       <c r="AO5" s="1">
         <v>1</v>
       </c>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>18</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>4</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>4</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45">
+      <c r="H6" s="44"/>
+      <c r="I6" s="44">
         <v>3</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="44">
         <v>4</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="44">
         <v>5</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="34">
         <v>3</v>
       </c>
       <c r="N6" s="10">
@@ -2654,20 +2729,20 @@
       <c r="P6" s="9">
         <v>1</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="45">
-        <v>1</v>
-      </c>
-      <c r="S6" s="47"/>
+      <c r="R6" s="44">
+        <v>1</v>
+      </c>
+      <c r="S6" s="46"/>
       <c r="T6" s="9">
         <v>1</v>
       </c>
       <c r="U6" s="1">
         <v>1</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="12">
         <v>1</v>
       </c>
       <c r="W6" s="7">
@@ -2725,43 +2800,54 @@
       <c r="AO6" s="1">
         <v>1</v>
       </c>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="32">
         <v>4</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>4</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>3</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <v>3</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="45">
         <v>4</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46" t="s">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="35">
         <v>3</v>
       </c>
       <c r="N7" s="10">
@@ -2773,20 +2859,20 @@
       <c r="P7" s="9">
         <v>1</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="45">
-        <v>1</v>
-      </c>
-      <c r="S7" s="44"/>
+      <c r="R7" s="44">
+        <v>1</v>
+      </c>
+      <c r="S7" s="43"/>
       <c r="T7" s="9">
         <v>1</v>
       </c>
       <c r="U7" s="1">
         <v>1</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="12">
         <v>1</v>
       </c>
       <c r="W7" s="7">
@@ -2844,43 +2930,54 @@
       <c r="AO7" s="1">
         <v>1</v>
       </c>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>15</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="32">
         <v>5</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>4</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>3</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>3</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="33" t="s">
+      <c r="H8" s="45"/>
+      <c r="I8" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="45">
         <v>4</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45" t="s">
+      <c r="K8" s="44"/>
+      <c r="L8" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="35">
         <v>3</v>
       </c>
       <c r="N8" s="10">
@@ -2892,20 +2989,20 @@
       <c r="P8" s="9">
         <v>1</v>
       </c>
-      <c r="Q8" s="45" t="s">
+      <c r="Q8" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="R8" s="45">
-        <v>1</v>
-      </c>
-      <c r="S8" s="49"/>
+      <c r="R8" s="44">
+        <v>1</v>
+      </c>
+      <c r="S8" s="48"/>
       <c r="T8" s="9">
         <v>1</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="12">
         <v>1</v>
       </c>
       <c r="W8" s="7">
@@ -2920,7 +3017,7 @@
       <c r="Z8" s="7">
         <v>1</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="13">
         <v>5</v>
       </c>
       <c r="AB8" s="6">
@@ -2963,45 +3060,56 @@
       <c r="AO8" s="1">
         <v>1</v>
       </c>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>5</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46">
+      <c r="E9" s="44"/>
+      <c r="F9" s="45">
         <v>3</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>3</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <v>3</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <v>4</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <v>5</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="36"/>
+      <c r="M9" s="35"/>
       <c r="N9" s="10">
         <v>1</v>
       </c>
@@ -3011,20 +3119,20 @@
       <c r="P9" s="9">
         <v>1</v>
       </c>
-      <c r="Q9" s="45" t="s">
+      <c r="Q9" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="R9" s="45">
-        <v>1</v>
-      </c>
-      <c r="S9" s="47"/>
+      <c r="R9" s="44">
+        <v>1</v>
+      </c>
+      <c r="S9" s="46"/>
       <c r="T9" s="9">
         <v>1</v>
       </c>
       <c r="U9" s="1">
         <v>1</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="12">
         <v>1</v>
       </c>
       <c r="W9" s="7">
@@ -3082,45 +3190,56 @@
       <c r="AO9" s="1">
         <v>1</v>
       </c>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>5</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="44">
         <v>4</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>3</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>4</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="33" t="s">
+      <c r="H10" s="44"/>
+      <c r="I10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="45">
         <v>4</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="45">
         <v>5</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="36"/>
+      <c r="M10" s="35"/>
       <c r="N10" s="10">
         <v>1</v>
       </c>
@@ -3130,20 +3249,20 @@
       <c r="P10" s="9">
         <v>1</v>
       </c>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="R10" s="45">
-        <v>1</v>
-      </c>
-      <c r="S10" s="49"/>
+      <c r="R10" s="44">
+        <v>1</v>
+      </c>
+      <c r="S10" s="48"/>
       <c r="T10" s="9">
         <v>1</v>
       </c>
       <c r="U10" s="1">
         <v>1</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V10" s="12">
         <v>1</v>
       </c>
       <c r="W10" s="7">
@@ -3158,7 +3277,7 @@
       <c r="Z10" s="7">
         <v>1</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AA10" s="13">
         <v>5</v>
       </c>
       <c r="AB10" s="6">
@@ -3201,45 +3320,56 @@
       <c r="AO10" s="1">
         <v>1</v>
       </c>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>5</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>4</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>3</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <v>4</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="33" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="44">
         <v>4</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="44">
         <v>5</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="36"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="10">
         <v>1</v>
       </c>
@@ -3249,20 +3379,20 @@
       <c r="P11" s="9">
         <v>1</v>
       </c>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="R11" s="45">
-        <v>1</v>
-      </c>
-      <c r="S11" s="49"/>
+      <c r="R11" s="44">
+        <v>1</v>
+      </c>
+      <c r="S11" s="48"/>
       <c r="T11" s="9">
         <v>1</v>
       </c>
       <c r="U11" s="1">
         <v>1</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="12">
         <v>1</v>
       </c>
       <c r="W11" s="7">
@@ -3320,41 +3450,52 @@
       <c r="AO11" s="1">
         <v>1</v>
       </c>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="32">
         <v>5</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>4</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="44">
         <v>4</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="44">
         <v>5</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="36"/>
+      <c r="M12" s="35"/>
       <c r="N12" s="10">
         <v>1</v>
       </c>
@@ -3364,18 +3505,18 @@
       <c r="P12" s="9">
         <v>1</v>
       </c>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45">
-        <v>1</v>
-      </c>
-      <c r="S12" s="49"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44">
+        <v>1</v>
+      </c>
+      <c r="S12" s="48"/>
       <c r="T12" s="9">
         <v>1</v>
       </c>
       <c r="U12" s="1">
         <v>1</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="12">
         <v>1</v>
       </c>
       <c r="W12" s="7">
@@ -3433,41 +3574,52 @@
       <c r="AO12" s="1">
         <v>1</v>
       </c>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>25</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="46">
+      <c r="D13" s="32"/>
+      <c r="E13" s="45">
         <v>4</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46">
+      <c r="F13" s="45"/>
+      <c r="G13" s="45">
         <v>3</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="45" t="s">
+      <c r="H13" s="45"/>
+      <c r="I13" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="45">
         <v>4</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <v>5</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="36"/>
+      <c r="M13" s="35"/>
       <c r="N13" s="10">
         <v>1</v>
       </c>
@@ -3477,20 +3629,20 @@
       <c r="P13" s="9">
         <v>1</v>
       </c>
-      <c r="Q13" s="46" t="s">
+      <c r="Q13" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="R13" s="45">
-        <v>1</v>
-      </c>
-      <c r="S13" s="47"/>
+      <c r="R13" s="44">
+        <v>1</v>
+      </c>
+      <c r="S13" s="46"/>
       <c r="T13" s="9">
         <v>1</v>
       </c>
       <c r="U13" s="1">
         <v>1</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="12">
         <v>1</v>
       </c>
       <c r="W13" s="7">
@@ -3505,7 +3657,7 @@
       <c r="Z13" s="7">
         <v>1</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA13" s="13">
         <v>4</v>
       </c>
       <c r="AB13" s="7" t="s">
@@ -3548,45 +3700,56 @@
       <c r="AO13" s="1">
         <v>1</v>
       </c>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>26</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>5</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>4</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>3</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>3</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46" t="s">
+      <c r="H14" s="45"/>
+      <c r="I14" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="45">
         <v>4</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="45">
         <v>5</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="36"/>
+      <c r="M14" s="35"/>
       <c r="N14" s="10">
         <v>1</v>
       </c>
@@ -3596,20 +3759,20 @@
       <c r="P14" s="9">
         <v>1</v>
       </c>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="R14" s="45">
-        <v>1</v>
-      </c>
-      <c r="S14" s="47"/>
+      <c r="R14" s="44">
+        <v>1</v>
+      </c>
+      <c r="S14" s="46"/>
       <c r="T14" s="9">
         <v>1</v>
       </c>
       <c r="U14" s="1">
         <v>1</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="12">
         <v>1</v>
       </c>
       <c r="W14" s="7">
@@ -3624,7 +3787,7 @@
       <c r="Z14" s="7">
         <v>1</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA14" s="13">
         <v>4</v>
       </c>
       <c r="AB14" s="7" t="s">
@@ -3667,45 +3830,56 @@
       <c r="AO14" s="1">
         <v>1</v>
       </c>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>29</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="45">
         <v>5</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>4</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45">
         <v>4</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="45">
         <v>3</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="45">
         <v>4</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="33">
         <v>5</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="36"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="10">
         <v>1</v>
       </c>
@@ -3715,20 +3889,20 @@
       <c r="P15" s="9">
         <v>1</v>
       </c>
-      <c r="Q15" s="45" t="s">
+      <c r="Q15" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="R15" s="45">
-        <v>1</v>
-      </c>
-      <c r="S15" s="50"/>
+      <c r="R15" s="44">
+        <v>1</v>
+      </c>
+      <c r="S15" s="49"/>
       <c r="T15" s="9">
         <v>1</v>
       </c>
       <c r="U15" s="1">
         <v>1</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="12">
         <v>1</v>
       </c>
       <c r="W15" s="7">
@@ -3743,7 +3917,7 @@
       <c r="Z15" s="7">
         <v>1</v>
       </c>
-      <c r="AA15" s="14">
+      <c r="AA15" s="13">
         <v>4</v>
       </c>
       <c r="AB15" s="6" t="s">
@@ -3786,41 +3960,52 @@
       <c r="AO15" s="1">
         <v>1</v>
       </c>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="32">
         <v>4</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <v>4</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="45">
+      <c r="F16" s="45"/>
+      <c r="G16" s="44">
         <v>3</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="33" t="s">
+      <c r="H16" s="44"/>
+      <c r="I16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="45">
         <v>4</v>
       </c>
-      <c r="K16" s="46"/>
-      <c r="L16" s="33" t="s">
+      <c r="K16" s="45"/>
+      <c r="L16" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="36"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="10">
         <v>1</v>
       </c>
@@ -3830,20 +4015,20 @@
       <c r="P16" s="9">
         <v>1</v>
       </c>
-      <c r="Q16" s="45" t="s">
+      <c r="Q16" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="R16" s="45">
-        <v>1</v>
-      </c>
-      <c r="S16" s="47"/>
+      <c r="R16" s="44">
+        <v>1</v>
+      </c>
+      <c r="S16" s="46"/>
       <c r="T16" s="9">
         <v>1</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="12">
         <v>1</v>
       </c>
       <c r="W16" s="7">
@@ -3901,43 +4086,54 @@
       <c r="AO16" s="1">
         <v>1</v>
       </c>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="44">
         <v>5</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <v>4</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <v>3</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="45">
         <v>2</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46">
+      <c r="H17" s="45"/>
+      <c r="I17" s="45">
         <v>3</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="45">
         <v>4</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="33" t="s">
+      <c r="K17" s="33"/>
+      <c r="L17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="36"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="10">
         <v>1</v>
       </c>
@@ -3947,20 +4143,20 @@
       <c r="P17" s="9">
         <v>1</v>
       </c>
-      <c r="Q17" s="45" t="s">
+      <c r="Q17" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="R17" s="45">
-        <v>1</v>
-      </c>
-      <c r="S17" s="47"/>
+      <c r="R17" s="44">
+        <v>1</v>
+      </c>
+      <c r="S17" s="46"/>
       <c r="T17" s="9">
         <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="12">
         <v>1</v>
       </c>
       <c r="W17" s="7">
@@ -3975,7 +4171,7 @@
       <c r="Z17" s="7">
         <v>1</v>
       </c>
-      <c r="AA17" s="14">
+      <c r="AA17" s="13">
         <v>4</v>
       </c>
       <c r="AB17" s="6">
@@ -4018,43 +4214,54 @@
       <c r="AO17" s="1">
         <v>1</v>
       </c>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <v>5</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="32">
         <v>5</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46">
+      <c r="G18" s="44"/>
+      <c r="H18" s="45">
         <v>3</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <v>4</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="34">
+      <c r="K18" s="44"/>
+      <c r="L18" s="33">
         <v>112</v>
       </c>
-      <c r="M18" s="36"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="10">
         <v>1</v>
       </c>
@@ -4064,20 +4271,20 @@
       <c r="P18" s="9">
         <v>1</v>
       </c>
-      <c r="Q18" s="45" t="s">
+      <c r="Q18" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="R18" s="45">
-        <v>1</v>
-      </c>
-      <c r="S18" s="47"/>
+      <c r="R18" s="44">
+        <v>1</v>
+      </c>
+      <c r="S18" s="46"/>
       <c r="T18" s="9">
         <v>1</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="12">
         <v>1</v>
       </c>
       <c r="W18" s="7">
@@ -4135,41 +4342,52 @@
       <c r="AO18" s="1">
         <v>1</v>
       </c>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
         <v>6</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="32">
         <v>5</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32">
         <v>3</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45" t="s">
+      <c r="H19" s="44"/>
+      <c r="I19" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="32">
         <v>4</v>
       </c>
-      <c r="K19" s="46"/>
-      <c r="L19" s="45" t="s">
+      <c r="K19" s="45"/>
+      <c r="L19" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="36"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="10">
         <v>1</v>
       </c>
@@ -4179,20 +4397,20 @@
       <c r="P19" s="9">
         <v>1</v>
       </c>
-      <c r="Q19" s="45" t="s">
+      <c r="Q19" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="R19" s="45">
-        <v>1</v>
-      </c>
-      <c r="S19" s="47"/>
+      <c r="R19" s="44">
+        <v>1</v>
+      </c>
+      <c r="S19" s="46"/>
       <c r="T19" s="9">
         <v>1</v>
       </c>
       <c r="U19" s="1">
         <v>1</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="12">
         <v>1</v>
       </c>
       <c r="W19" s="7">
@@ -4250,43 +4468,54 @@
       <c r="AO19" s="1">
         <v>1</v>
       </c>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="45">
         <v>5</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="44">
         <v>4</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="44">
         <v>3</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <v>3</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="45" t="s">
+      <c r="H20" s="33"/>
+      <c r="I20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="44">
         <v>4</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="45" t="s">
+      <c r="K20" s="45"/>
+      <c r="L20" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="36"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="10">
         <v>1</v>
       </c>
@@ -4296,20 +4525,20 @@
       <c r="P20" s="9">
         <v>1</v>
       </c>
-      <c r="Q20" s="46" t="s">
+      <c r="Q20" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="R20" s="45">
-        <v>1</v>
-      </c>
-      <c r="S20" s="47"/>
+      <c r="R20" s="44">
+        <v>1</v>
+      </c>
+      <c r="S20" s="46"/>
       <c r="T20" s="9">
         <v>1</v>
       </c>
       <c r="U20" s="1">
         <v>1</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="12">
         <v>1</v>
       </c>
       <c r="W20" s="7">
@@ -4367,43 +4596,54 @@
       <c r="AO20" s="1">
         <v>1</v>
       </c>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
         <v>12</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="32">
         <v>5</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="44">
         <v>4</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="44">
         <v>3</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <v>3</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <v>3</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="44">
         <v>4</v>
       </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="36"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="10">
         <v>1</v>
       </c>
@@ -4413,20 +4653,20 @@
       <c r="P21" s="9">
         <v>1</v>
       </c>
-      <c r="Q21" s="45" t="s">
+      <c r="Q21" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="R21" s="45">
-        <v>1</v>
-      </c>
-      <c r="S21" s="49"/>
+      <c r="R21" s="44">
+        <v>1</v>
+      </c>
+      <c r="S21" s="48"/>
       <c r="T21" s="9">
         <v>1</v>
       </c>
       <c r="U21" s="1">
         <v>1</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="12">
         <v>1</v>
       </c>
       <c r="W21" s="7">
@@ -4484,33 +4724,44 @@
       <c r="AO21" s="1">
         <v>1</v>
       </c>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
         <v>14</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="33">
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="32">
         <v>4</v>
       </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="37" t="s">
+      <c r="K22" s="33"/>
+      <c r="L22" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="36"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="10">
         <v>1</v>
       </c>
@@ -4520,20 +4771,20 @@
       <c r="P22" s="9">
         <v>1</v>
       </c>
-      <c r="Q22" s="45" t="s">
+      <c r="Q22" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="R22" s="45">
-        <v>1</v>
-      </c>
-      <c r="S22" s="49"/>
+      <c r="R22" s="44">
+        <v>1</v>
+      </c>
+      <c r="S22" s="48"/>
       <c r="T22" s="9">
         <v>1</v>
       </c>
       <c r="U22" s="1">
         <v>1</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="12">
         <v>1</v>
       </c>
       <c r="W22" s="7">
@@ -4591,37 +4842,48 @@
       <c r="AO22" s="1">
         <v>1</v>
       </c>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>16</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="44">
         <v>5</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="45">
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="44">
         <v>3</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="46">
+      <c r="H23" s="44"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="45">
         <v>4</v>
       </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="45" t="s">
+      <c r="K23" s="33"/>
+      <c r="L23" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="36"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="10">
         <v>1</v>
       </c>
@@ -4631,20 +4893,20 @@
       <c r="P23" s="9">
         <v>1</v>
       </c>
-      <c r="Q23" s="45" t="s">
+      <c r="Q23" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="R23" s="45">
-        <v>1</v>
-      </c>
-      <c r="S23" s="47"/>
+      <c r="R23" s="44">
+        <v>1</v>
+      </c>
+      <c r="S23" s="46"/>
       <c r="T23" s="9">
         <v>1</v>
       </c>
       <c r="U23" s="1">
         <v>1</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="12">
         <v>1</v>
       </c>
       <c r="W23" s="7">
@@ -4702,41 +4964,52 @@
       <c r="AO23" s="1">
         <v>1</v>
       </c>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
         <v>17</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="45">
         <v>4</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46">
+      <c r="F24" s="45"/>
+      <c r="G24" s="45">
         <v>2</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="45"/>
+      <c r="I24" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="32">
         <v>4</v>
       </c>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46" t="s">
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="M24" s="36"/>
+      <c r="M24" s="35"/>
       <c r="N24" s="10">
         <v>1</v>
       </c>
@@ -4746,20 +5019,20 @@
       <c r="P24" s="9">
         <v>1</v>
       </c>
-      <c r="Q24" s="45" t="s">
+      <c r="Q24" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="R24" s="45">
-        <v>1</v>
-      </c>
-      <c r="S24" s="49"/>
+      <c r="R24" s="44">
+        <v>1</v>
+      </c>
+      <c r="S24" s="48"/>
       <c r="T24" s="9">
         <v>1</v>
       </c>
       <c r="U24" s="1">
         <v>1</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="12">
         <v>1</v>
       </c>
       <c r="W24" s="7">
@@ -4817,41 +5090,52 @@
       <c r="AO24" s="1">
         <v>1</v>
       </c>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="4">
         <v>20</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="44">
         <v>5</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="44">
         <v>4</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44">
         <v>2</v>
       </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45" t="s">
+      <c r="H25" s="44"/>
+      <c r="I25" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <v>4</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="36"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="10">
         <v>1</v>
       </c>
@@ -4861,20 +5145,20 @@
       <c r="P25" s="9">
         <v>1</v>
       </c>
-      <c r="Q25" s="45" t="s">
+      <c r="Q25" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="R25" s="45">
-        <v>1</v>
-      </c>
-      <c r="S25" s="49"/>
+      <c r="R25" s="44">
+        <v>1</v>
+      </c>
+      <c r="S25" s="48"/>
       <c r="T25" s="9">
         <v>1</v>
       </c>
       <c r="U25" s="1">
         <v>1</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="12">
         <v>1</v>
       </c>
       <c r="W25" s="7">
@@ -4932,39 +5216,50 @@
       <c r="AO25" s="1">
         <v>1</v>
       </c>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="4">
         <v>21</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="45">
         <v>5</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <v>3</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="46" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="44">
         <v>4</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="46" t="s">
+      <c r="K26" s="33"/>
+      <c r="L26" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M26" s="36"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="10">
         <v>1</v>
       </c>
@@ -4974,20 +5269,20 @@
       <c r="P26" s="9">
         <v>1</v>
       </c>
-      <c r="Q26" s="45" t="s">
+      <c r="Q26" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="R26" s="45">
-        <v>1</v>
-      </c>
-      <c r="S26" s="49"/>
+      <c r="R26" s="44">
+        <v>1</v>
+      </c>
+      <c r="S26" s="48"/>
       <c r="T26" s="9">
         <v>1</v>
       </c>
       <c r="U26" s="1">
         <v>1</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="12">
         <v>1</v>
       </c>
       <c r="W26" s="7">
@@ -5045,41 +5340,52 @@
       <c r="AO26" s="1">
         <v>1</v>
       </c>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="4">
         <v>22</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="33">
         <v>5</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <v>5</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="33">
         <v>3</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="46" t="s">
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="44">
         <v>5</v>
       </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="46">
+      <c r="K27" s="33"/>
+      <c r="L27" s="45">
         <v>112</v>
       </c>
-      <c r="M27" s="36"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="10">
         <v>1</v>
       </c>
@@ -5089,20 +5395,20 @@
       <c r="P27" s="9">
         <v>1</v>
       </c>
-      <c r="Q27" s="45" t="s">
+      <c r="Q27" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="R27" s="45">
-        <v>1</v>
-      </c>
-      <c r="S27" s="49"/>
+      <c r="R27" s="44">
+        <v>1</v>
+      </c>
+      <c r="S27" s="48"/>
       <c r="T27" s="9">
         <v>1</v>
       </c>
       <c r="U27" s="1">
         <v>1</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="12">
         <v>1</v>
       </c>
       <c r="W27" s="7">
@@ -5160,41 +5466,52 @@
       <c r="AO27" s="1">
         <v>1</v>
       </c>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="4">
         <v>24</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <v>5</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="34">
+      <c r="E28" s="45"/>
+      <c r="F28" s="33">
         <v>3</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="33">
         <v>3</v>
       </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46" t="s">
+      <c r="H28" s="45"/>
+      <c r="I28" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="33">
         <v>4</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="46" t="s">
+      <c r="K28" s="33"/>
+      <c r="L28" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="36"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="10">
         <v>1</v>
       </c>
@@ -5204,20 +5521,20 @@
       <c r="P28" s="9">
         <v>1</v>
       </c>
-      <c r="Q28" s="46" t="s">
+      <c r="Q28" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="R28" s="45">
-        <v>1</v>
-      </c>
-      <c r="S28" s="49"/>
+      <c r="R28" s="44">
+        <v>1</v>
+      </c>
+      <c r="S28" s="48"/>
       <c r="T28" s="9">
         <v>1</v>
       </c>
       <c r="U28" s="1">
         <v>1</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="12">
         <v>1</v>
       </c>
       <c r="W28" s="7">
@@ -5275,43 +5592,54 @@
       <c r="AO28" s="1">
         <v>1</v>
       </c>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34">
+      <c r="F29" s="33"/>
+      <c r="G29" s="33">
         <v>3</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="33">
         <v>4</v>
       </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="33" t="s">
+      <c r="K29" s="33"/>
+      <c r="L29" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="M29" s="36"/>
+      <c r="M29" s="35"/>
       <c r="N29" s="10">
         <v>1</v>
       </c>
@@ -5321,20 +5649,20 @@
       <c r="P29" s="9">
         <v>1</v>
       </c>
-      <c r="Q29" s="45" t="s">
+      <c r="Q29" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="R29" s="45">
-        <v>1</v>
-      </c>
-      <c r="S29" s="49"/>
+      <c r="R29" s="44">
+        <v>1</v>
+      </c>
+      <c r="S29" s="48"/>
       <c r="T29" s="9">
         <v>1</v>
       </c>
       <c r="U29" s="1">
         <v>1</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="12">
         <v>1</v>
       </c>
       <c r="W29" s="7">
@@ -5392,41 +5720,52 @@
       <c r="AO29" s="1">
         <v>1</v>
       </c>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="33">
         <v>5</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34">
+      <c r="E30" s="33"/>
+      <c r="F30" s="33">
         <v>3</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="33">
         <v>4</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="33" t="s">
+      <c r="H30" s="33"/>
+      <c r="I30" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="33">
         <v>4</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="33" t="s">
+      <c r="K30" s="33"/>
+      <c r="L30" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="M30" s="36"/>
+      <c r="M30" s="35"/>
       <c r="N30" s="10">
         <v>1</v>
       </c>
@@ -5436,20 +5775,20 @@
       <c r="P30" s="9">
         <v>1</v>
       </c>
-      <c r="Q30" s="45" t="s">
+      <c r="Q30" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="R30" s="45">
-        <v>1</v>
-      </c>
-      <c r="S30" s="50"/>
+      <c r="R30" s="44">
+        <v>1</v>
+      </c>
+      <c r="S30" s="49"/>
       <c r="T30" s="9">
         <v>1</v>
       </c>
       <c r="U30" s="1">
         <v>1</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="12">
         <v>1</v>
       </c>
       <c r="W30" s="7">
@@ -5507,39 +5846,50 @@
       <c r="AO30" s="1">
         <v>1</v>
       </c>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18">
+      <c r="AP30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17">
         <v>30</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>5</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39" t="s">
+      <c r="E31" s="37"/>
+      <c r="F31" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="37">
         <v>3</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38">
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37">
         <v>4</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38" t="s">
+      <c r="K31" s="37"/>
+      <c r="L31" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="40"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="10">
         <v>1</v>
       </c>
@@ -5549,20 +5899,20 @@
       <c r="P31" s="9">
         <v>1</v>
       </c>
-      <c r="Q31" s="51" t="s">
+      <c r="Q31" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="R31" s="45">
-        <v>1</v>
-      </c>
-      <c r="S31" s="52"/>
+      <c r="R31" s="44">
+        <v>1</v>
+      </c>
+      <c r="S31" s="51"/>
       <c r="T31" s="9">
         <v>1</v>
       </c>
       <c r="U31" s="1">
         <v>1</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="12">
         <v>1</v>
       </c>
       <c r="W31" s="7">
@@ -5577,10 +5927,10 @@
       <c r="Z31" s="7">
         <v>1</v>
       </c>
-      <c r="AA31" s="19" t="s">
+      <c r="AA31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AB31" s="19" t="s">
+      <c r="AB31" s="18" t="s">
         <v>4</v>
       </c>
       <c r="AC31" s="7">
@@ -5595,7 +5945,7 @@
       <c r="AF31" s="7">
         <v>1</v>
       </c>
-      <c r="AG31" s="20"/>
+      <c r="AG31" s="19"/>
       <c r="AH31" s="3">
         <v>1</v>
       </c>
@@ -5620,12 +5970,23 @@
       <c r="AO31" s="1">
         <v>1</v>
       </c>
-      <c r="AP31" s="12"/>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="12"/>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AP31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="4"/>
@@ -5672,7 +6033,7 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="4"/>
@@ -5719,7 +6080,7 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="4"/>
@@ -5766,7 +6127,7 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="4"/>
@@ -5813,7 +6174,7 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="4"/>
@@ -5860,7 +6221,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="3"/>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="4"/>
@@ -5907,7 +6268,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="3"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="4"/>
@@ -5954,7 +6315,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="3"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="4"/>
@@ -6001,7 +6362,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="3"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="4"/>
@@ -6048,7 +6409,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="3"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="4"/>
@@ -6095,7 +6456,7 @@
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4"/>
@@ -6142,7 +6503,7 @@
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4"/>
@@ -6189,7 +6550,7 @@
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="4"/>
@@ -6236,7 +6597,7 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="4"/>
@@ -6283,7 +6644,7 @@
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="4"/>
@@ -6330,7 +6691,7 @@
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="4"/>
@@ -6377,7 +6738,7 @@
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="4"/>
@@ -6424,10 +6785,10 @@
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="21"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -6471,10 +6832,10 @@
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="21"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -6518,10 +6879,10 @@
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="21"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -6565,10 +6926,10 @@
       <c r="AR51" s="3"/>
       <c r="AS51" s="3"/>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="21"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -6612,10 +6973,10 @@
       <c r="AR52" s="3"/>
       <c r="AS52" s="3"/>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="21"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -6659,10 +7020,10 @@
       <c r="AR53" s="3"/>
       <c r="AS53" s="3"/>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="21"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -6706,10 +7067,10 @@
       <c r="AR54" s="3"/>
       <c r="AS54" s="3"/>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="21"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -6753,10 +7114,10 @@
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="21"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -6800,10 +7161,10 @@
       <c r="AR56" s="3"/>
       <c r="AS56" s="3"/>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="21"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -6847,10 +7208,10 @@
       <c r="AR57" s="3"/>
       <c r="AS57" s="3"/>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="21"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -6894,10 +7255,10 @@
       <c r="AR58" s="3"/>
       <c r="AS58" s="3"/>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="21"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -6941,10 +7302,10 @@
       <c r="AR59" s="3"/>
       <c r="AS59" s="3"/>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="21"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -6988,10 +7349,10 @@
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="21"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -7035,10 +7396,10 @@
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="21"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -7082,10 +7443,10 @@
       <c r="AR62" s="3"/>
       <c r="AS62" s="3"/>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="21"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -7129,10 +7490,10 @@
       <c r="AR63" s="3"/>
       <c r="AS63" s="3"/>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="21"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -7176,10 +7537,10 @@
       <c r="AR64" s="3"/>
       <c r="AS64" s="3"/>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="21"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -7223,10 +7584,10 @@
       <c r="AR65" s="3"/>
       <c r="AS65" s="3"/>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="21"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -7270,10 +7631,10 @@
       <c r="AR66" s="3"/>
       <c r="AS66" s="3"/>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="21"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -7317,10 +7678,10 @@
       <c r="AR67" s="3"/>
       <c r="AS67" s="3"/>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="21"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -7364,10 +7725,10 @@
       <c r="AR68" s="3"/>
       <c r="AS68" s="3"/>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="21"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -7411,10 +7772,10 @@
       <c r="AR69" s="3"/>
       <c r="AS69" s="3"/>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="21"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -7458,10 +7819,10 @@
       <c r="AR70" s="3"/>
       <c r="AS70" s="3"/>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="21"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -7505,10 +7866,10 @@
       <c r="AR71" s="3"/>
       <c r="AS71" s="3"/>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="21"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -7552,10 +7913,10 @@
       <c r="AR72" s="3"/>
       <c r="AS72" s="3"/>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="21"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -7599,10 +7960,10 @@
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="21"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -7646,10 +8007,10 @@
       <c r="AR74" s="3"/>
       <c r="AS74" s="3"/>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="21"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -7693,10 +8054,10 @@
       <c r="AR75" s="3"/>
       <c r="AS75" s="3"/>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="21"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -7740,10 +8101,10 @@
       <c r="AR76" s="3"/>
       <c r="AS76" s="3"/>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="21"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -7787,10 +8148,10 @@
       <c r="AR77" s="3"/>
       <c r="AS77" s="3"/>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="21"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -7834,10 +8195,10 @@
       <c r="AR78" s="3"/>
       <c r="AS78" s="3"/>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="21"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -7881,10 +8242,10 @@
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="21"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -7928,10 +8289,10 @@
       <c r="AR80" s="3"/>
       <c r="AS80" s="3"/>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="21"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -7975,10 +8336,10 @@
       <c r="AR81" s="3"/>
       <c r="AS81" s="3"/>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="21"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -8022,10 +8383,10 @@
       <c r="AR82" s="3"/>
       <c r="AS82" s="3"/>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="21"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -8069,10 +8430,10 @@
       <c r="AR83" s="3"/>
       <c r="AS83" s="3"/>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="21"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -8116,10 +8477,10 @@
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="21"/>
+      <c r="C85" s="20"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -8163,10 +8524,10 @@
       <c r="AR85" s="3"/>
       <c r="AS85" s="3"/>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="21"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -8210,10 +8571,10 @@
       <c r="AR86" s="3"/>
       <c r="AS86" s="3"/>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="21"/>
+      <c r="C87" s="20"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -8257,10 +8618,10 @@
       <c r="AR87" s="3"/>
       <c r="AS87" s="3"/>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="21"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -8304,10 +8665,10 @@
       <c r="AR88" s="3"/>
       <c r="AS88" s="3"/>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="21"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -8351,10 +8712,10 @@
       <c r="AR89" s="3"/>
       <c r="AS89" s="3"/>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="21"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -8398,10 +8759,10 @@
       <c r="AR90" s="3"/>
       <c r="AS90" s="3"/>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="21"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -8445,10 +8806,10 @@
       <c r="AR91" s="3"/>
       <c r="AS91" s="3"/>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="21"/>
+      <c r="C92" s="20"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -8492,10 +8853,10 @@
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="21"/>
+      <c r="C93" s="20"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -8539,10 +8900,10 @@
       <c r="AR93" s="3"/>
       <c r="AS93" s="3"/>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="21"/>
+      <c r="C94" s="20"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -8586,10 +8947,10 @@
       <c r="AR94" s="3"/>
       <c r="AS94" s="3"/>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="21"/>
+      <c r="C95" s="20"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -8633,10 +8994,10 @@
       <c r="AR95" s="3"/>
       <c r="AS95" s="3"/>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="21"/>
+      <c r="C96" s="20"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -8680,10 +9041,10 @@
       <c r="AR96" s="3"/>
       <c r="AS96" s="3"/>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="21"/>
+      <c r="C97" s="20"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -8727,10 +9088,10 @@
       <c r="AR97" s="3"/>
       <c r="AS97" s="3"/>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="21"/>
+      <c r="C98" s="20"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -8774,10 +9135,10 @@
       <c r="AR98" s="3"/>
       <c r="AS98" s="3"/>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="21"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -8821,10 +9182,10 @@
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="21"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -8868,10 +9229,10 @@
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="21"/>
+      <c r="C101" s="20"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -8915,10 +9276,10 @@
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="21"/>
+      <c r="C102" s="20"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -8962,10 +9323,10 @@
       <c r="AR102" s="3"/>
       <c r="AS102" s="3"/>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="21"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -9009,10 +9370,10 @@
       <c r="AR103" s="3"/>
       <c r="AS103" s="3"/>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="21"/>
+      <c r="C104" s="20"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -9056,10 +9417,10 @@
       <c r="AR104" s="3"/>
       <c r="AS104" s="3"/>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="21"/>
+      <c r="C105" s="20"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -9103,10 +9464,10 @@
       <c r="AR105" s="3"/>
       <c r="AS105" s="3"/>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="21"/>
+      <c r="C106" s="20"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -9150,10 +9511,10 @@
       <c r="AR106" s="3"/>
       <c r="AS106" s="3"/>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="21"/>
+      <c r="C107" s="20"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -9197,10 +9558,10 @@
       <c r="AR107" s="3"/>
       <c r="AS107" s="3"/>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="21"/>
+      <c r="C108" s="20"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -9244,10 +9605,10 @@
       <c r="AR108" s="3"/>
       <c r="AS108" s="3"/>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="21"/>
+      <c r="C109" s="20"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -9291,10 +9652,10 @@
       <c r="AR109" s="3"/>
       <c r="AS109" s="3"/>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="21"/>
+      <c r="C110" s="20"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -9338,10 +9699,10 @@
       <c r="AR110" s="3"/>
       <c r="AS110" s="3"/>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="21"/>
+      <c r="C111" s="20"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -9385,10 +9746,10 @@
       <c r="AR111" s="3"/>
       <c r="AS111" s="3"/>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="21"/>
+      <c r="C112" s="20"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -9432,10 +9793,10 @@
       <c r="AR112" s="3"/>
       <c r="AS112" s="3"/>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="21"/>
+      <c r="C113" s="20"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -9479,10 +9840,10 @@
       <c r="AR113" s="3"/>
       <c r="AS113" s="3"/>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="21"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -9526,10 +9887,10 @@
       <c r="AR114" s="3"/>
       <c r="AS114" s="3"/>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="21"/>
+      <c r="C115" s="20"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -9573,10 +9934,10 @@
       <c r="AR115" s="3"/>
       <c r="AS115" s="3"/>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="21"/>
+      <c r="C116" s="20"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -9620,10 +9981,10 @@
       <c r="AR116" s="3"/>
       <c r="AS116" s="3"/>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="21"/>
+      <c r="C117" s="20"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -9667,10 +10028,10 @@
       <c r="AR117" s="3"/>
       <c r="AS117" s="3"/>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="21"/>
+      <c r="C118" s="20"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -9714,10 +10075,10 @@
       <c r="AR118" s="3"/>
       <c r="AS118" s="3"/>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="21"/>
+      <c r="C119" s="20"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -9761,10 +10122,10 @@
       <c r="AR119" s="3"/>
       <c r="AS119" s="3"/>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="21"/>
+      <c r="C120" s="20"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -9808,10 +10169,10 @@
       <c r="AR120" s="3"/>
       <c r="AS120" s="3"/>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="21"/>
+      <c r="C121" s="20"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -9855,10 +10216,10 @@
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="21"/>
+      <c r="C122" s="20"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -9902,10 +10263,10 @@
       <c r="AR122" s="3"/>
       <c r="AS122" s="3"/>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="21"/>
+      <c r="C123" s="20"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -9949,10 +10310,10 @@
       <c r="AR123" s="3"/>
       <c r="AS123" s="3"/>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="21"/>
+      <c r="C124" s="20"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -9996,10 +10357,10 @@
       <c r="AR124" s="3"/>
       <c r="AS124" s="3"/>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="21"/>
+      <c r="C125" s="20"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -10043,10 +10404,10 @@
       <c r="AR125" s="3"/>
       <c r="AS125" s="3"/>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="21"/>
+      <c r="C126" s="20"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -10090,10 +10451,10 @@
       <c r="AR126" s="3"/>
       <c r="AS126" s="3"/>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="21"/>
+      <c r="C127" s="20"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -10137,10 +10498,10 @@
       <c r="AR127" s="3"/>
       <c r="AS127" s="3"/>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
-      <c r="C128" s="21"/>
+      <c r="C128" s="20"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -10184,10 +10545,10 @@
       <c r="AR128" s="3"/>
       <c r="AS128" s="3"/>
     </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="21"/>
+      <c r="C129" s="20"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -10231,10 +10592,10 @@
       <c r="AR129" s="3"/>
       <c r="AS129" s="3"/>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="21"/>
+      <c r="C130" s="20"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -10278,10 +10639,10 @@
       <c r="AR130" s="3"/>
       <c r="AS130" s="3"/>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="21"/>
+      <c r="C131" s="20"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
@@ -10325,10 +10686,10 @@
       <c r="AR131" s="3"/>
       <c r="AS131" s="3"/>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="21"/>
+      <c r="C132" s="20"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
@@ -10372,10 +10733,10 @@
       <c r="AR132" s="3"/>
       <c r="AS132" s="3"/>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="21"/>
+      <c r="C133" s="20"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -10419,10 +10780,10 @@
       <c r="AR133" s="3"/>
       <c r="AS133" s="3"/>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="21"/>
+      <c r="C134" s="20"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
@@ -10466,10 +10827,10 @@
       <c r="AR134" s="3"/>
       <c r="AS134" s="3"/>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="21"/>
+      <c r="C135" s="20"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -10513,10 +10874,10 @@
       <c r="AR135" s="3"/>
       <c r="AS135" s="3"/>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="21"/>
+      <c r="C136" s="20"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -10560,10 +10921,10 @@
       <c r="AR136" s="3"/>
       <c r="AS136" s="3"/>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="21"/>
+      <c r="C137" s="20"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -10607,10 +10968,10 @@
       <c r="AR137" s="3"/>
       <c r="AS137" s="3"/>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="21"/>
+      <c r="C138" s="20"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -10654,10 +11015,10 @@
       <c r="AR138" s="3"/>
       <c r="AS138" s="3"/>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="21"/>
+      <c r="C139" s="20"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -10701,10 +11062,10 @@
       <c r="AR139" s="3"/>
       <c r="AS139" s="3"/>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="21"/>
+      <c r="C140" s="20"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -10748,10 +11109,10 @@
       <c r="AR140" s="3"/>
       <c r="AS140" s="3"/>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="21"/>
+      <c r="C141" s="20"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -10795,10 +11156,10 @@
       <c r="AR141" s="3"/>
       <c r="AS141" s="3"/>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="21"/>
+      <c r="C142" s="20"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -10842,10 +11203,10 @@
       <c r="AR142" s="3"/>
       <c r="AS142" s="3"/>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="21"/>
+      <c r="C143" s="20"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -10889,10 +11250,10 @@
       <c r="AR143" s="3"/>
       <c r="AS143" s="3"/>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="21"/>
+      <c r="C144" s="20"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -10936,10 +11297,10 @@
       <c r="AR144" s="3"/>
       <c r="AS144" s="3"/>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="21"/>
+      <c r="C145" s="20"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
@@ -10983,10 +11344,10 @@
       <c r="AR145" s="3"/>
       <c r="AS145" s="3"/>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="21"/>
+      <c r="C146" s="20"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
@@ -11030,10 +11391,10 @@
       <c r="AR146" s="3"/>
       <c r="AS146" s="3"/>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="21"/>
+      <c r="C147" s="20"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -11077,10 +11438,10 @@
       <c r="AR147" s="3"/>
       <c r="AS147" s="3"/>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="21"/>
+      <c r="C148" s="20"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -11124,10 +11485,10 @@
       <c r="AR148" s="3"/>
       <c r="AS148" s="3"/>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="21"/>
+      <c r="C149" s="20"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -11171,10 +11532,10 @@
       <c r="AR149" s="3"/>
       <c r="AS149" s="3"/>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="21"/>
+      <c r="C150" s="20"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -11218,10 +11579,10 @@
       <c r="AR150" s="3"/>
       <c r="AS150" s="3"/>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="21"/>
+      <c r="C151" s="20"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -11265,10 +11626,10 @@
       <c r="AR151" s="3"/>
       <c r="AS151" s="3"/>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="21"/>
+      <c r="C152" s="20"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -11312,10 +11673,10 @@
       <c r="AR152" s="3"/>
       <c r="AS152" s="3"/>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="21"/>
+      <c r="C153" s="20"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -11359,10 +11720,10 @@
       <c r="AR153" s="3"/>
       <c r="AS153" s="3"/>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="21"/>
+      <c r="C154" s="20"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -11406,10 +11767,10 @@
       <c r="AR154" s="3"/>
       <c r="AS154" s="3"/>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="21"/>
+      <c r="C155" s="20"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -11453,10 +11814,10 @@
       <c r="AR155" s="3"/>
       <c r="AS155" s="3"/>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="21"/>
+      <c r="C156" s="20"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -11500,10 +11861,10 @@
       <c r="AR156" s="3"/>
       <c r="AS156" s="3"/>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="21"/>
+      <c r="C157" s="20"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -11547,10 +11908,10 @@
       <c r="AR157" s="3"/>
       <c r="AS157" s="3"/>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="21"/>
+      <c r="C158" s="20"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -11594,10 +11955,10 @@
       <c r="AR158" s="3"/>
       <c r="AS158" s="3"/>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="21"/>
+      <c r="C159" s="20"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -11641,10 +12002,10 @@
       <c r="AR159" s="3"/>
       <c r="AS159" s="3"/>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
-      <c r="C160" s="21"/>
+      <c r="C160" s="20"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -11688,10 +12049,10 @@
       <c r="AR160" s="3"/>
       <c r="AS160" s="3"/>
     </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="21"/>
+      <c r="C161" s="20"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -11735,10 +12096,10 @@
       <c r="AR161" s="3"/>
       <c r="AS161" s="3"/>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="21"/>
+      <c r="C162" s="20"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -11782,10 +12143,10 @@
       <c r="AR162" s="3"/>
       <c r="AS162" s="3"/>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="21"/>
+      <c r="C163" s="20"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -11829,10 +12190,10 @@
       <c r="AR163" s="3"/>
       <c r="AS163" s="3"/>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="21"/>
+      <c r="C164" s="20"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -11876,10 +12237,10 @@
       <c r="AR164" s="3"/>
       <c r="AS164" s="3"/>
     </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="21"/>
+      <c r="C165" s="20"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -11923,10 +12284,10 @@
       <c r="AR165" s="3"/>
       <c r="AS165" s="3"/>
     </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="21"/>
+      <c r="C166" s="20"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -11970,10 +12331,10 @@
       <c r="AR166" s="3"/>
       <c r="AS166" s="3"/>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
-      <c r="C167" s="21"/>
+      <c r="C167" s="20"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -12017,10 +12378,10 @@
       <c r="AR167" s="3"/>
       <c r="AS167" s="3"/>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
-      <c r="C168" s="21"/>
+      <c r="C168" s="20"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -12064,10 +12425,10 @@
       <c r="AR168" s="3"/>
       <c r="AS168" s="3"/>
     </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
-      <c r="C169" s="21"/>
+      <c r="C169" s="20"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -12111,10 +12472,10 @@
       <c r="AR169" s="3"/>
       <c r="AS169" s="3"/>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="21"/>
+      <c r="C170" s="20"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -12158,10 +12519,10 @@
       <c r="AR170" s="3"/>
       <c r="AS170" s="3"/>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="21"/>
+      <c r="C171" s="20"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -12205,10 +12566,10 @@
       <c r="AR171" s="3"/>
       <c r="AS171" s="3"/>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
-      <c r="C172" s="21"/>
+      <c r="C172" s="20"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -12252,10 +12613,10 @@
       <c r="AR172" s="3"/>
       <c r="AS172" s="3"/>
     </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
-      <c r="C173" s="21"/>
+      <c r="C173" s="20"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -12299,10 +12660,10 @@
       <c r="AR173" s="3"/>
       <c r="AS173" s="3"/>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
-      <c r="C174" s="21"/>
+      <c r="C174" s="20"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -12346,10 +12707,10 @@
       <c r="AR174" s="3"/>
       <c r="AS174" s="3"/>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
-      <c r="C175" s="21"/>
+      <c r="C175" s="20"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -12393,10 +12754,10 @@
       <c r="AR175" s="3"/>
       <c r="AS175" s="3"/>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="21"/>
+      <c r="C176" s="20"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -12440,10 +12801,10 @@
       <c r="AR176" s="3"/>
       <c r="AS176" s="3"/>
     </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="21"/>
+      <c r="C177" s="20"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -12487,10 +12848,10 @@
       <c r="AR177" s="3"/>
       <c r="AS177" s="3"/>
     </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="21"/>
+      <c r="C178" s="20"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -12534,10 +12895,10 @@
       <c r="AR178" s="3"/>
       <c r="AS178" s="3"/>
     </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="21"/>
+      <c r="C179" s="20"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -12581,10 +12942,10 @@
       <c r="AR179" s="3"/>
       <c r="AS179" s="3"/>
     </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="21"/>
+      <c r="C180" s="20"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -12628,10 +12989,10 @@
       <c r="AR180" s="3"/>
       <c r="AS180" s="3"/>
     </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
-      <c r="C181" s="21"/>
+      <c r="C181" s="20"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -12675,10 +13036,10 @@
       <c r="AR181" s="3"/>
       <c r="AS181" s="3"/>
     </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
-      <c r="C182" s="21"/>
+      <c r="C182" s="20"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -12722,10 +13083,10 @@
       <c r="AR182" s="3"/>
       <c r="AS182" s="3"/>
     </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="21"/>
+      <c r="C183" s="20"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -12769,10 +13130,10 @@
       <c r="AR183" s="3"/>
       <c r="AS183" s="3"/>
     </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
-      <c r="C184" s="21"/>
+      <c r="C184" s="20"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -12816,10 +13177,10 @@
       <c r="AR184" s="3"/>
       <c r="AS184" s="3"/>
     </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="21"/>
+      <c r="C185" s="20"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -12863,10 +13224,10 @@
       <c r="AR185" s="3"/>
       <c r="AS185" s="3"/>
     </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:45" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="21"/>
+      <c r="C186" s="20"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
